--- a/report/tora_responses.xlsx
+++ b/report/tora_responses.xlsx
@@ -405,7 +405,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B45"/>
+  <dimension ref="A1:B89"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -770,16 +770,368 @@
         <v>200</v>
       </c>
     </row>
+    <row r="46">
+      <c r="A46" t="str">
+        <v>https://www.talkoverra.com/au/en.html</v>
+      </c>
+      <c r="B46">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="str">
+        <v>https://www.talkoverra.com/etc.clientlibs/awcm-projects-ous/components/content/social-share/clientlibs.min.js</v>
+      </c>
+      <c r="B47">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="str">
+        <v>https://fonts.googleapis.com/css2?family=Saira+Extra+Condensed:wght@100;200;300;400;500;600;700;800;900&amp;family=Ubuntu:ital,wght@0,300;0,400;0,500;0,700;1,300;1,400;1,500;1,700&amp;family=Roboto:wght@400;500;700&amp;display=swap</v>
+      </c>
+      <c r="B48">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="str">
+        <v>https://www.talkoverra.com/etc.clientlibs/awcm-projects-ous/clientlibs/assets/resources/images/icons/open-menu.png</v>
+      </c>
+      <c r="B49">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="str">
+        <v>https://www.talkoverra.com/etc.clientlibs/awcm-projects-ous/clientlibs/assets/resources/images/icons/close.png</v>
+      </c>
+      <c r="B50">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="str">
+        <v>https://www.talkoverra.com/etc.clientlibs/awcm-projects-ous/clientlibs/abbvie-talkoverra-ous/clientlibs-components.min.css</v>
+      </c>
+      <c r="B51">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="str">
+        <v>https://www.talkoverra.com/etc.clientlibs/awcm-projects-ous/clientlibs/abbvie-talkoverra-ous/clientlibs-main.min.css</v>
+      </c>
+      <c r="B52">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="str">
+        <v>https://www.talkoverra.com/etc.clientlibs/awcm-projects-ous/clientlibs/abbvie-talkoverra-ous/clientlibs-header-publish.min.css</v>
+      </c>
+      <c r="B53">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="str">
+        <v>https://www.talkoverra.com/content/dam/abbvie-talkoverra-ous/tora.png/_jcr_content/renditions/cq5dam.web.1280.1280.png</v>
+      </c>
+      <c r="B54">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="str">
+        <v>https://www.talkoverra.com/etc.clientlibs/awcm-projects-ous/clientlibs/abbvie-talkoverra-ous/clientlibs-components.min.js</v>
+      </c>
+      <c r="B55">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="str">
+        <v>https://consent.trustarc.com/v2/notice/j1ufwq</v>
+      </c>
+      <c r="B56">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="str">
+        <v>https://www.talkoverra.com/etc.clientlibs/awcm-projects-ous/clientlibs/abbvie-talkoverra-ous/clientlibs-footer-publish.min.js</v>
+      </c>
+      <c r="B57">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="str">
+        <v>https://fonts.gstatic.com/s/sairaextracondensed/v13/-nFvOHYr-vcC7h8MklGBkrvmUG9rbpkisrTrG2vh2wph.woff2</v>
+      </c>
+      <c r="B58">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="str">
+        <v>https://fonts.gstatic.com/s/sairaextracondensed/v13/-nFvOHYr-vcC7h8MklGBkrvmUG9rbpkisrTrT27h2wph.woff2</v>
+      </c>
+      <c r="B59">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="str">
+        <v>https://fonts.gstatic.com/s/ubuntu/v20/4iCs6KVjbNBYlgoKfw72.woff2</v>
+      </c>
+      <c r="B60">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="str">
+        <v>https://fonts.gstatic.com/s/sairaextracondensed/v13/-nFvOHYr-vcC7h8MklGBkrvmUG9rbpkisrTra2_h2wph.woff2</v>
+      </c>
+      <c r="B61">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="str">
+        <v>https://www.talkoverra.com/etc.clientlibs/awcm-projects-ous/components/content/button-link/clientlibs.min.js</v>
+      </c>
+      <c r="B62">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="str">
+        <v>https://www.talkoverra.com/etc.clientlibs/clientlibs/granite/jquery/granite/csrf.min.js</v>
+      </c>
+      <c r="B63">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="str">
+        <v>https://www.talkoverra.com/etc.clientlibs/awcm-projects-ous/components/content/feedback-popup/clientlibs.min.js</v>
+      </c>
+      <c r="B64">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="str">
+        <v>https://www.talkoverra.com/etc.clientlibs/awcm-projects-ous/clientlibs/abbvie-talkoverra-ous/clientlibs-main.min.js</v>
+      </c>
+      <c r="B65">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="str">
+        <v>https://www.talkoverra.com/content/dam/abbvie-talkoverra-ous/icon-text-mute.png/_jcr_content/renditions/cq5dam.web.1280.1280.png</v>
+      </c>
+      <c r="B66">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="str">
+        <v>https://www.talkoverra.com/content/dam/abbvie-talkoverra-ous/master/images/light.png/_jcr_content/renditions/cq5dam.web.1280.1280.png</v>
+      </c>
+      <c r="B67">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="str">
+        <v>https://www.talkoverra.com/content/dam/abbvie-talkoverra-ous/au/images/thumbnail-guide-small-au-en.png/_jcr_content/renditions/cq5dam.web.1280.1280.png</v>
+      </c>
+      <c r="B68">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="str">
+        <v>https://www.talkoverra.com/content/dam/abbvie-talkoverra-ous/master/images/global-rheum-ra-talk-over-ra-campaign-3-1500px.jpg/_jcr_content/renditions/cq5dam.web.1280.1280.jpeg</v>
+      </c>
+      <c r="B69">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="str">
+        <v>https://www.talkoverra.com/etc.clientlibs/awcm-projects-ous/clientlibs/abbvie-talkoverra-ous/assets/resources/images/menu-active.png</v>
+      </c>
+      <c r="B70">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="str">
+        <v>https://cag.abbvie.com:9999/jstag/managed/ruxitagent_A2Vfqru_10249220905100923.js</v>
+      </c>
+      <c r="B71">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="str">
+        <v>https://consent.trustarc.com/v2/asset/trustarc-logo-xs.svg</v>
+      </c>
+      <c r="B72">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="str">
+        <v>https://consent.trustarc.com/v2/asset/ic-close.svg</v>
+      </c>
+      <c r="B73">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="str">
+        <v>https://consent.trustarc.com/v2/asset/latin.woff2</v>
+      </c>
+      <c r="B74">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="str">
+        <v>https://consent.trustarc.com/v2/asset/13:49:04.332j1ufwq_AbbVie-iD.png</v>
+      </c>
+      <c r="B75">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="str">
+        <v>https://www.talkoverra.com/bin/public/abbvie-commons/hreflangs?resourcePath=/content/abbvie-talkoverra-ous/au/en/jcr:content</v>
+      </c>
+      <c r="B76">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="str">
+        <v>https://consent-reporting.trustarc.com/api/user-action/log?action=impression&amp;domain=j1ufwq&amp;behavior=implied&amp;country=bd&amp;language=en&amp;rand=0.502236758344228&amp;session=c969d2e0-8ee1-4d2d-9fc0-89e4a78b4d06&amp;userType=NEW</v>
+      </c>
+      <c r="B77">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="str">
+        <v>https://consent.trustarc.com/v2/consentcategories/getnonemptyindexes?cmId=j1ufwq&amp;referer=&amp;fullURL=https%3A%2F%2Fwww.talkoverra.com%2Fau%2Fen.html&amp;category=</v>
+      </c>
+      <c r="B78">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="str">
+        <v>https://www.talkoverra.com/content/abbvie-talkoverra-ous/au/en/jcr:content/body/column_control/par1-100col/container/content/column_control_copy/par2-1783col/image_extension/item_1.coreimg.jpg/1600361558370-global-rheum-ra-talk-over-ra-campaign-3-1500px.jpg</v>
+      </c>
+      <c r="B79">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="str">
+        <v>https://www.talkoverra.com/content/abbvie-talkoverra-ous/au/en/jcr:content/header/header/image-extension/item_1.coreimg.png/1600361532287-tora.png</v>
+      </c>
+      <c r="B80">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="str">
+        <v>https://consent.trustarc.com/v2/asset/ic-error.svg</v>
+      </c>
+      <c r="B81">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="str">
+        <v>https://consent.trustarc.com/v2/asset/ic-close-white.svg</v>
+      </c>
+      <c r="B82">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="str">
+        <v>https://consent-reporting.trustarc.com/api/user-action/bannermsg?action=views&amp;domain=j1ufwq&amp;behavior=implied&amp;country=bd&amp;language=en&amp;rand=0.06201727333861018&amp;session=c969d2e0-8ee1-4d2d-9fc0-89e4a78b4d06&amp;userType=NEW</v>
+      </c>
+      <c r="B83">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="str">
+        <v>https://www.talkoverra.com/libs/granite/csrf/token.json</v>
+      </c>
+      <c r="B84">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="str">
+        <v>https://www.talkoverra.com/content/abbvie-talkoverra-ous/au/en/jcr:content/body/column_control_460265258/par1-333333col/teaser_icon_text/image-extension/item_2.coreimg.png/1600361534293-icon-text-discover.png</v>
+      </c>
+      <c r="B85">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="str">
+        <v>https://www.talkoverra.com/content/abbvie-talkoverra-ous/au/en/jcr:content/body/column_control_460265258/par2-333333col/teaser_icon_text/image-extension/item_1.coreimg.png/1600361532420-icon-text-mute.png</v>
+      </c>
+      <c r="B86">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="str">
+        <v>https://www.talkoverra.com/content/abbvie-talkoverra-ous/au/en/jcr:content/body/column_control_460265258/par3-333333col/teaser_icon_text/image-extension/item_1.coreimg.png/1600361550879-light.png</v>
+      </c>
+      <c r="B87">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="str">
+        <v>https://cag.abbvie.com:9999/bf/16a183f6-c871-4082-850b-a1f7a2ecd0b1?type=js3&amp;sn=v_4_srv_-2D30_sn_G97HH8HJA5MTH28GQDICS0STEV3G1QAU&amp;svrid=-30&amp;flavor=cors&amp;vi=AKRKBRFGPTAEIFSCCPEOQPNKASCLRVRH-0&amp;modifiedSince=1665670719626&amp;rf=https%3A%2F%2Fwww.talkoverra.com%2Fau%2Fen.html&amp;bp=3&amp;app=f58c43e8c8fb9498&amp;crc=2465757617&amp;en=oao3vfhf&amp;end=1</v>
+      </c>
+      <c r="B88">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="str">
+        <v>https://cag.abbvie.com:9999/bf/16a183f6-c871-4082-850b-a1f7a2ecd0b1?type=js3&amp;sn=v_4_srv_8_sn_G97HH8HJA5MTH28GQDICS0STEV3G1QAU_app-3Af58c43e8c8fb9498_1_ol_0_perc_100000_mul_1&amp;svrid=8&amp;flavor=cors&amp;vi=AKRKBRFGPTAEIFSCCPEOQPNKASCLRVRH-0&amp;modifiedSince=1718839398116&amp;rf=https%3A%2F%2Fwww.talkoverra.com%2Fau%2Fen.html&amp;bp=3&amp;app=f58c43e8c8fb9498&amp;crc=627959528&amp;en=oao3vfhf&amp;end=1</v>
+      </c>
+      <c r="B89">
+        <v>200</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:B45"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:B89"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B53"/>
+  <dimension ref="A1:B104"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -1208,16 +1560,424 @@
         <v>200</v>
       </c>
     </row>
+    <row r="54">
+      <c r="A54" t="str">
+        <v>https://www.motto-hanaso-riumachi.jp/</v>
+      </c>
+      <c r="B54">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="str">
+        <v>https://fonts.googleapis.com/css2?family=Saira+Extra+Condensed:wght@100;200;300;400;500;600;700;800;900&amp;family=Ubuntu:ital,wght@0,300;0,400;0,500;0,700;1,300;1,400;1,500;1,700&amp;family=Roboto:wght@400;500;700&amp;display=swap</v>
+      </c>
+      <c r="B55">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="str">
+        <v>https://www.motto-hanaso-riumachi.jp/content/dam/abbvie-talkoverra-ous/jp/page_2/tora-talk-Re3.png/_jcr_content/renditions/cq5dam.web.1280.1280.png</v>
+      </c>
+      <c r="B56">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="str">
+        <v>https://www.motto-hanaso-riumachi.jp/content/dam/abbvie-talkoverra-ous/jp/page_2/TORA-DirG.png/_jcr_content/renditions/cq5dam.web.1280.1280.png</v>
+      </c>
+      <c r="B57">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="str">
+        <v>https://www.motto-hanaso-riumachi.jp/content/dam/abbvie-talkoverra-ous/tora.png/_jcr_content/renditions/cq5dam.web.1280.1280.png</v>
+      </c>
+      <c r="B58">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="str">
+        <v>https://www.motto-hanaso-riumachi.jp/etc.clientlibs/awcm-projects-ous/clientlibs/assets/resources/images/icons/open-menu.png</v>
+      </c>
+      <c r="B59">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="str">
+        <v>https://www.motto-hanaso-riumachi.jp/etc.clientlibs/awcm-projects-ous/components/content/social-share/clientlibs.min.js</v>
+      </c>
+      <c r="B60">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="str">
+        <v>https://www.motto-hanaso-riumachi.jp/content/dam/abbvie-talkoverra-ous/jp/TORA%20Patient%20Discussion%20Guide_page-0001_02.jpg/_jcr_content/renditions/cq5dam.web.1280.1280.jpeg</v>
+      </c>
+      <c r="B61">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="str">
+        <v>https://www.motto-hanaso-riumachi.jp/etc.clientlibs/awcm-projects-ous/clientlibs/assets/resources/images/icons/close.png</v>
+      </c>
+      <c r="B62">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="str">
+        <v>https://www.motto-hanaso-riumachi.jp/etc.clientlibs/awcm-projects-ous/clientlibs/abbvie-talkoverra-ous/clientlibs-components.min.css</v>
+      </c>
+      <c r="B63">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="str">
+        <v>https://www.motto-hanaso-riumachi.jp/etc.clientlibs/awcm-projects-ous/clientlibs/abbvie-talkoverra-ous/clientlibs-footer-publish.min.js</v>
+      </c>
+      <c r="B64">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="str">
+        <v>https://www.motto-hanaso-riumachi.jp/content/dam/abbvie-talkoverra-ous/jp/page_2/t2t_0707_1.png/_jcr_content/renditions/cq5dam.web.1280.1280.png</v>
+      </c>
+      <c r="B65">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="str">
+        <v>https://www.motto-hanaso-riumachi.jp/etc.clientlibs/awcm-projects-ous/clientlibs/abbvie-talkoverra-ous/clientlibs-main.min.css</v>
+      </c>
+      <c r="B66">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="str">
+        <v>https://www.motto-hanaso-riumachi.jp/content/dam/abbvie-talkoverra-ous/jp/img-01_01-kv-d.jpg/_jcr_content/renditions/cq5dam.web.1280.1280.jpeg</v>
+      </c>
+      <c r="B67">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="str">
+        <v>https://consent.trustarc.com/v2/notice/prk2ia</v>
+      </c>
+      <c r="B68">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="str">
+        <v>https://www.motto-hanaso-riumachi.jp/etc.clientlibs/awcm-projects-ous/clientlibs/abbvie-talkoverra-ous/clientlibs-header-publish.min.css</v>
+      </c>
+      <c r="B69">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="str">
+        <v>https://www.motto-hanaso-riumachi.jp/etc.clientlibs/awcm-projects-ous/components/content/button-link/clientlibs.min.js</v>
+      </c>
+      <c r="B70">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="str">
+        <v>https://www.motto-hanaso-riumachi.jp/etc.clientlibs/awcm-projects-ous/components/content/feedback-popup/clientlibs.min.js</v>
+      </c>
+      <c r="B71">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="str">
+        <v>https://www.motto-hanaso-riumachi.jp/etc.clientlibs/clientlibs/granite/jquery/granite/csrf.min.js</v>
+      </c>
+      <c r="B72">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="str">
+        <v>https://www.motto-hanaso-riumachi.jp/etc.clientlibs/awcm-projects-ous/clientlibs/abbvie-talkoverra-ous/clientlibs-components.min.js</v>
+      </c>
+      <c r="B73">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="str">
+        <v>https://www.motto-hanaso-riumachi.jp/etc.clientlibs/awcm-projects-ous/clientlibs/abbvie-talkoverra-ous/clientlibs-main.min.js</v>
+      </c>
+      <c r="B74">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="str">
+        <v>https://fonts.gstatic.com/s/ubuntu/v20/4iCs6KVjbNBYlgoKfw72.woff2</v>
+      </c>
+      <c r="B75">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="str">
+        <v>https://fonts.gstatic.com/s/sairaextracondensed/v13/-nFvOHYr-vcC7h8MklGBkrvmUG9rbpkisrTrG2vh2wph.woff2</v>
+      </c>
+      <c r="B76">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="str">
+        <v>https://www.motto-hanaso-riumachi.jp/content/dam/abbvie-talkoverra-ous/jp/img-01_02-kv-m.jpg/_jcr_content/renditions/cq5dam.web.1280.1280.jpeg</v>
+      </c>
+      <c r="B77">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="str">
+        <v>https://fonts.gstatic.com/s/sairaextracondensed/v13/-nFvOHYr-vcC7h8MklGBkrvmUG9rbpkisrTrT27h2wph.woff2</v>
+      </c>
+      <c r="B78">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="str">
+        <v>https://fonts.gstatic.com/s/ubuntu/v20/4iCv6KVjbNBYlgoCxCvjsGyN.woff2</v>
+      </c>
+      <c r="B79">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="str">
+        <v>https://fonts.gstatic.com/s/sairaextracondensed/v13/-nFvOHYr-vcC7h8MklGBkrvmUG9rbpkisrTrU23h2wph.woff2</v>
+      </c>
+      <c r="B80">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="str">
+        <v>https://www.motto-hanaso-riumachi.jp/etc.clientlibs/awcm-projects-ous/clientlibs/abbvie-talkoverra-ous/assets/resources/images/menu-active.png</v>
+      </c>
+      <c r="B81">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="str">
+        <v>https://cag.abbvie.com:9999/jstag/managed/ruxitagent_A2Vfqru_10249220905100923.js</v>
+      </c>
+      <c r="B82">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="str">
+        <v>https://www.motto-hanaso-riumachi.jp/libs/granite/csrf/token.json</v>
+      </c>
+      <c r="B83">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="str">
+        <v>https://consent-reporting.trustarc.com/api/user-action/log?action=impression&amp;domain=prk2ia&amp;behavior=implied&amp;country=bd&amp;language=en&amp;rand=0.0619633780660831&amp;session=44b2e261-d4b6-4c7d-8bd9-372c6e6843fe&amp;userType=NEW</v>
+      </c>
+      <c r="B84">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="str">
+        <v>https://consent.trustarc.com/v2/consentcategories/getnonemptyindexes?cmId=prk2ia&amp;referer=&amp;fullURL=https%3A%2F%2Fwww.motto-hanaso-riumachi.jp%2F&amp;category=</v>
+      </c>
+      <c r="B85">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="str">
+        <v>https://www.motto-hanaso-riumachi.jp/content/abbvie-talkoverra-ous/jp/ja/jcr:content/header/header/image-extension/item_1.coreimg.png/1600361532287-tora.png</v>
+      </c>
+      <c r="B86">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="str">
+        <v>https://www.motto-hanaso-riumachi.jp/content/abbvie-talkoverra-ous/jp/ja/jcr:content/body/column_control_14909/par1-100col/container/content/image_extension_copy/item_1.coreimg.jpg/1621943984692-img-01_01-kv-d.jpg</v>
+      </c>
+      <c r="B87">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="str">
+        <v>https://consent.trustarc.com/v2/asset/crossdomain.min.html&amp;domain=prk2ia</v>
+      </c>
+      <c r="B88">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="str">
+        <v>https://consent.trustarc.com/v2/asset/ic-close.svg</v>
+      </c>
+      <c r="B89">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="str">
+        <v>https://consent.trustarc.com/v2/asset/trustarc-logo-xs.svg</v>
+      </c>
+      <c r="B90">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="str">
+        <v>https://consent.trustarc.com/v2/asset/latin.woff2</v>
+      </c>
+      <c r="B91">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="str">
+        <v>https://www.motto-hanaso-riumachi.jp/bin/public/abbvie-commons/hreflangs?resourcePath=/content/abbvie-talkoverra-ous/jp/ja/jcr:content</v>
+      </c>
+      <c r="B92">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="str">
+        <v>https://consent-reporting.trustarc.com/api/user-action/bannermsg?action=views&amp;domain=prk2ia&amp;behavior=implied&amp;country=bd&amp;language=en&amp;rand=0.8827535541901499&amp;session=44b2e261-d4b6-4c7d-8bd9-372c6e6843fe&amp;userType=NEW</v>
+      </c>
+      <c r="B93">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="str">
+        <v>https://consent.trustarc.com/v2/asset/ic-error.svg</v>
+      </c>
+      <c r="B94">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="str">
+        <v>https://www.motto-hanaso-riumachi.jp/content/abbvie-talkoverra-ous/jp/ja/jcr:content/body/column_control_14909_511109882/par1-100col/column_control_798328849/par1-100col/container/content/column_control_copy/par2-333333col/teaser_icon_text_cop/image-extension/item_1.coreimg.png/1625716416463-t2t_0707_1.png</v>
+      </c>
+      <c r="B95">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="str">
+        <v>https://www.motto-hanaso-riumachi.jp/content/abbvie-talkoverra-ous/jp/ja/jcr:content/body/column_control_14909_511109882/par1-100col/column_control_798328849/par1-100col/container/content/column_control_copy/par1-333333col/teaser_icon_text_cop_753505436/image-extension/item_1.coreimg.png/1625728429175-tora-talk-Re3.png</v>
+      </c>
+      <c r="B96">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="str">
+        <v>https://www.motto-hanaso-riumachi.jp/content/abbvie-talkoverra-ous/jp/ja/jcr:content/body/column_control_14909_511109882/par1-100col/column_control_798328849/par1-100col/container/content/column_control_copy/par3-333333col/teaser_icon_text_cop/image-extension/item_1.coreimg.png/1625716526559-TORA-DirG.png</v>
+      </c>
+      <c r="B97">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="str">
+        <v>https://consent.trustarc.com/v2/asset/ic-close-white.svg</v>
+      </c>
+      <c r="B98">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="str">
+        <v>https://consent.trustarc.com/v2/asset/15:40:40.370prk2ia_AbbVieID-logo.png</v>
+      </c>
+      <c r="B99">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="str">
+        <v>https://www.motto-hanaso-riumachi.jp/content/abbvie-talkoverra-ous/jp/ja/jcr%3acontent/body/column_control_14909/par1-100col/container/content/image_extension_copy/item_1.coreimg.jpg/1621944021075.jpg</v>
+      </c>
+      <c r="B100">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="str">
+        <v>https://www.motto-hanaso-riumachi.jp/content/abbvie-talkoverra-ous/jp/ja/jcr%3acontent/body/column_control_14909_511109882/par1-100col/column_control_798328849/par1-100col/container/content/column_control_copy/par1-333333col/teaser_icon_text_cop_753505436/image-extension/item_1.coreimg.png/1625730259737.png</v>
+      </c>
+      <c r="B101">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="str">
+        <v>https://www.motto-hanaso-riumachi.jp/content/abbvie-talkoverra-ous/jp/ja/jcr%3acontent/body/column_control_14909_511109882/par1-100col/column_control_798328849/par1-100col/container/content/column_control_copy/par2-333333col/teaser_icon_text_cop/image-extension/item_1.coreimg.png/1625716890135.png</v>
+      </c>
+      <c r="B102">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="str">
+        <v>https://cag.abbvie.com:9999/bf/16a183f6-c871-4082-850b-a1f7a2ecd0b1?type=js3&amp;sn=v_4_srv_-2D5_sn_EARMQVCCV4T9ROK96BS8HDKFFII9I82L&amp;svrid=-5&amp;flavor=cors&amp;vi=JTPEDWMOAVFBPCOFHHHMHHSRHHPTPFKW-0&amp;modifiedSince=1665670719626&amp;rf=https%3A%2F%2Fwww.motto-hanaso-riumachi.jp%2F&amp;bp=3&amp;app=f58c43e8c8fb9498&amp;crc=2107679922&amp;en=oao3vfhf&amp;end=1</v>
+      </c>
+      <c r="B103">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="str">
+        <v>https://consent.trustarc.com/v2/consentcategories/getnonemptyindexes?cmId=prk2ia&amp;referer=&amp;fullURL=https%3A%2F%2Fwww.motto-hanaso-riumachi.jp%2F&amp;category=</v>
+      </c>
+      <c r="B104">
+        <v>200</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:B53"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:B104"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B48"/>
+  <dimension ref="A1:B94"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -1606,16 +2366,384 @@
         <v>200</v>
       </c>
     </row>
+    <row r="49">
+      <c r="A49" t="str">
+        <v>https://www.talkoverra.com/hr/hr.html</v>
+      </c>
+      <c r="B49">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="str">
+        <v>https://fonts.googleapis.com/css2?family=Saira+Extra+Condensed:wght@100;200;300;400;500;600;700;800;900&amp;family=Ubuntu:ital,wght@0,300;0,400;0,500;0,700;1,300;1,400;1,500;1,700&amp;family=Roboto:wght@400;500;700&amp;display=swap</v>
+      </c>
+      <c r="B50">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="str">
+        <v>https://www.talkoverra.com/etc.clientlibs/awcm-projects-ous/components/content/social-share/clientlibs.min.js</v>
+      </c>
+      <c r="B51">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="str">
+        <v>https://www.talkoverra.com/etc.clientlibs/awcm-projects-ous/clientlibs/assets/resources/images/icons/close.png</v>
+      </c>
+      <c r="B52">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="str">
+        <v>https://www.talkoverra.com/etc.clientlibs/awcm-projects-ous/clientlibs/assets/resources/images/icons/open-menu.png</v>
+      </c>
+      <c r="B53">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="str">
+        <v>https://www.talkoverra.com/etc.clientlibs/awcm-projects-ous/clientlibs/abbvie-talkoverra-ous/clientlibs-components.min.css</v>
+      </c>
+      <c r="B54">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="str">
+        <v>https://www.talkoverra.com/content/abbvie-talkoverra-ous/hr/hr/_jcr_content/header/header/image-extension/item_1.coreimg.png/1611326697955-TORA-HR-Logo.png</v>
+      </c>
+      <c r="B55">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="str">
+        <v>https://www.talkoverra.com/etc.clientlibs/awcm-projects-ous/clientlibs/abbvie-talkoverra-ous/clientlibs-main.min.css</v>
+      </c>
+      <c r="B56">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="str">
+        <v>https://www.talkoverra.com/etc.clientlibs/awcm-projects-ous/clientlibs/abbvie-talkoverra-ous/clientlibs-header-publish.min.css</v>
+      </c>
+      <c r="B57">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="str">
+        <v>https://www.talkoverra.com/content/dam/abbvie-talkoverra-ous/master/images/global-rheum-ra-talk-over-ra-campaign-3-transparent-1500px.png/_jcr_content/renditions/cq5dam.web.1280.1280.png</v>
+      </c>
+      <c r="B58">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="str">
+        <v>https://www.talkoverra.com/etc.clientlibs/awcm-projects-ous/components/content/feedback-popup/clientlibs.min.js</v>
+      </c>
+      <c r="B59">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="str">
+        <v>https://consent.trustarc.com/v2/notice/6xlsnu</v>
+      </c>
+      <c r="B60">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="str">
+        <v>https://www.talkoverra.com/content/dam/abbvie-talkoverra-ous/hr/Discussion%20Guide-hr-hr-thumbnail.png/_jcr_content/renditions/cq5dam.web.1280.1280.png</v>
+      </c>
+      <c r="B61">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="str">
+        <v>https://fonts.gstatic.com/s/sairaextracondensed/v13/-nFvOHYr-vcC7h8MklGBkrvmUG9rbpkisrTra2_h2wph.woff2</v>
+      </c>
+      <c r="B62">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="str">
+        <v>https://fonts.gstatic.com/s/sairaextracondensed/v13/-nFvOHYr-vcC7h8MklGBkrvmUG9rbpkisrTrT27h1Qphim8.woff2</v>
+      </c>
+      <c r="B63">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="str">
+        <v>https://fonts.gstatic.com/s/sairaextracondensed/v13/-nFvOHYr-vcC7h8MklGBkrvmUG9rbpkisrTrG2vh2wph.woff2</v>
+      </c>
+      <c r="B64">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="str">
+        <v>https://fonts.gstatic.com/s/ubuntu/v20/4iCs6KVjbNBYlgoKcQ72j00.woff2</v>
+      </c>
+      <c r="B65">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="str">
+        <v>https://www.talkoverra.com/etc.clientlibs/clientlibs/granite/jquery/granite/csrf.min.js</v>
+      </c>
+      <c r="B66">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="str">
+        <v>https://www.talkoverra.com/content/dam/abbvie-talkoverra-ous/master/images/light.png/_jcr_content/renditions/cq5dam.web.1280.1280.png</v>
+      </c>
+      <c r="B67">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="str">
+        <v>https://fonts.gstatic.com/s/ubuntu/v20/4iCs6KVjbNBYlgoKfw72.woff2</v>
+      </c>
+      <c r="B68">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="str">
+        <v>https://www.talkoverra.com/etc.clientlibs/awcm-projects-ous/clientlibs/abbvie-talkoverra-ous/clientlibs-main.min.js</v>
+      </c>
+      <c r="B69">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="str">
+        <v>https://fonts.gstatic.com/s/sairaextracondensed/v13/-nFvOHYr-vcC7h8MklGBkrvmUG9rbpkisrTrT27h2wph.woff2</v>
+      </c>
+      <c r="B70">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="str">
+        <v>https://www.talkoverra.com/etc.clientlibs/awcm-projects-ous/components/content/button-link/clientlibs.min.js</v>
+      </c>
+      <c r="B71">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="str">
+        <v>https://www.talkoverra.com/content/dam/abbvie-talkoverra-ous/icon-text-mute.png/_jcr_content/renditions/cq5dam.web.1280.1280.png</v>
+      </c>
+      <c r="B72">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="str">
+        <v>https://www.talkoverra.com/etc.clientlibs/awcm-projects-ous/clientlibs/abbvie-talkoverra-ous/clientlibs-components.min.js</v>
+      </c>
+      <c r="B73">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="str">
+        <v>https://www.talkoverra.com/etc.clientlibs/awcm-projects-ous/clientlibs/abbvie-talkoverra-ous/clientlibs-footer-publish.min.js</v>
+      </c>
+      <c r="B74">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="str">
+        <v>https://www.talkoverra.com/etc.clientlibs/awcm-projects-ous/clientlibs/abbvie-talkoverra-ous/assets/resources/images/menu-active.png</v>
+      </c>
+      <c r="B75">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="str">
+        <v>https://www.talkoverra.com/content/abbvie-talkoverra-ous/hr/hr/jcr%3acontent/header/header/image-extension/item_1.coreimg.png/1611326714819.png</v>
+      </c>
+      <c r="B76">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="str">
+        <v>https://cag.abbvie.com:9999/jstag/managed/ruxitagent_A2Vfqru_10249220905100923.js</v>
+      </c>
+      <c r="B77">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="str">
+        <v>https://consent.trustarc.com/v2/asset/ic-error.svg</v>
+      </c>
+      <c r="B78">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="str">
+        <v>https://consent.trustarc.com/v2/asset/ic-close-white.svg</v>
+      </c>
+      <c r="B79">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="str">
+        <v>https://consent.trustarc.com/v2/asset/ic-close.svg</v>
+      </c>
+      <c r="B80">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="str">
+        <v>https://consent.trustarc.com/v2/asset/trustarc-logo-xs.svg</v>
+      </c>
+      <c r="B81">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="str">
+        <v>https://consent.trustarc.com/v2/asset/latin.woff2</v>
+      </c>
+      <c r="B82">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="str">
+        <v>https://www.talkoverra.com/libs/granite/csrf/token.json</v>
+      </c>
+      <c r="B83">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="str">
+        <v>https://consent.trustarc.com/v2/asset/10:40:12.573j2ymw3_AbbVieID-logo.png</v>
+      </c>
+      <c r="B84">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="str">
+        <v>https://consent-reporting.trustarc.com/api/user-action/log?action=impression&amp;domain=6xlsnu&amp;behavior=implied&amp;country=bd&amp;language=en&amp;rand=0.7135970586874067&amp;session=219889df-aa9d-49f1-a26b-25d9f7d064b4&amp;userType=NEW</v>
+      </c>
+      <c r="B85">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="str">
+        <v>https://www.talkoverra.com/content/abbvie-talkoverra-ous/hr/hr/jcr:content/body/column_control/par1-100col/container/content/column_control/par2-2575col/column_control/par1-100col/image_extension/item_1.coreimg.png/1600361553688-global-rheum-ra-talk-over-ra-campaign-3-transparent-1500px.png</v>
+      </c>
+      <c r="B86">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="str">
+        <v>https://consent.trustarc.com/v2/consentcategories/getnonemptyindexes?cmId=6xlsnu&amp;referer=&amp;fullURL=https%3A%2F%2Fwww.talkoverra.com%2Fhr%2Fhr.html&amp;category=</v>
+      </c>
+      <c r="B87">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="str">
+        <v>https://consent-reporting.trustarc.com/api/user-action/bannermsg?action=views&amp;domain=6xlsnu&amp;behavior=implied&amp;country=bd&amp;language=en&amp;rand=0.3647305287115006&amp;session=219889df-aa9d-49f1-a26b-25d9f7d064b4&amp;userType=NEW</v>
+      </c>
+      <c r="B88">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="str">
+        <v>https://www.talkoverra.com/bin/public/abbvie-commons/hreflangs?resourcePath=/content/abbvie-talkoverra-ous/hr/hr/jcr:content</v>
+      </c>
+      <c r="B89">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="str">
+        <v>https://www.talkoverra.com/content/abbvie-talkoverra-ous/hr/hr/jcr%3acontent/body/column_control/par1-100col/container/content/column_control/par2-2575col/column_control/par1-100col/image_extension/item_1.coreimg.png/1601405518701.png</v>
+      </c>
+      <c r="B90">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="str">
+        <v>https://www.talkoverra.com/content/abbvie-talkoverra-ous/hr/hr/jcr:content/body/column_control_460265258/par1-333333col/teaser_icon_text/image-extension/item_2.coreimg.png/1600361534293-icon-text-discover.png</v>
+      </c>
+      <c r="B91">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="str">
+        <v>https://www.talkoverra.com/content/abbvie-talkoverra-ous/hr/hr/jcr:content/body/column_control_460265258/par2-333333col/teaser_icon_text/image-extension/item_1.coreimg.png/1600361532420-icon-text-mute.png</v>
+      </c>
+      <c r="B92">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="str">
+        <v>https://www.talkoverra.com/content/abbvie-talkoverra-ous/hr/hr/jcr:content/body/column_control_460265258/par3-333333col/teaser_icon_text/image-extension/item_1.coreimg.png/1600361550879-light.png</v>
+      </c>
+      <c r="B93">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="str">
+        <v>https://cag.abbvie.com:9999/bf/16a183f6-c871-4082-850b-a1f7a2ecd0b1?type=js3&amp;sn=v_4_srv_-2D79_sn_L6G8TKISQP6DQBUN841CNAATA83JMQ4Q&amp;svrid=-79&amp;flavor=cors&amp;vi=UWLLVMJPRRNTBMFKDBKTUCBASEBCIFIF-0&amp;modifiedSince=1665670719626&amp;rf=https%3A%2F%2Fwww.talkoverra.com%2Fhr%2Fhr.html&amp;bp=3&amp;app=f58c43e8c8fb9498&amp;crc=270847571&amp;en=oao3vfhf&amp;end=1</v>
+      </c>
+      <c r="B94">
+        <v>200</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:B48"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:B94"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B50"/>
+  <dimension ref="A1:B100"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -2020,16 +3148,416 @@
         <v>200</v>
       </c>
     </row>
+    <row r="51">
+      <c r="A51" t="str">
+        <v>https://www.talkoverra.com/it/it.html</v>
+      </c>
+      <c r="B51">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="str">
+        <v>https://www.talkoverra.com/etc.clientlibs/awcm-projects-ous/clientlibs/abbvie-talkoverra-ous/clientlibs-components.min.css</v>
+      </c>
+      <c r="B52">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="str">
+        <v>https://www.talkoverra.com/etc.clientlibs/awcm-projects-ous/clientlibs/assets/resources/images/icons/open-menu.png</v>
+      </c>
+      <c r="B53">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="str">
+        <v>https://www.talkoverra.com/etc.clientlibs/awcm-projects-ous/clientlibs/abbvie-talkoverra-ous/clientlibs-main.min.css</v>
+      </c>
+      <c r="B54">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="str">
+        <v>https://www.talkoverra.com/etc.clientlibs/awcm-projects-ous/components/content/social-share/clientlibs.min.js</v>
+      </c>
+      <c r="B55">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="str">
+        <v>https://www.talkoverra.com/etc.clientlibs/awcm-projects-ous/clientlibs/assets/resources/images/icons/close.png</v>
+      </c>
+      <c r="B56">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="str">
+        <v>https://www.talkoverra.com/etc.clientlibs/awcm-projects-ous/clientlibs/abbvie-talkoverra-ous/clientlibs-header-publish.min.css</v>
+      </c>
+      <c r="B57">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="str">
+        <v>https://fonts.googleapis.com/css2?family=Saira+Extra+Condensed:wght@100;200;300;400;500;600;700;800;900&amp;family=Ubuntu:ital,wght@0,300;0,400;0,500;0,700;1,300;1,400;1,500;1,700&amp;family=Roboto:wght@400;500;700&amp;display=swap</v>
+      </c>
+      <c r="B58">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="str">
+        <v>https://www.talkoverra.com/content/dam/abbvie-talkoverra-ous/master/images/global-rheum-ra-talk-over-ra-campaign-3-transparent-1500px.png/_jcr_content/renditions/cq5dam.web.1280.1280.png</v>
+      </c>
+      <c r="B59">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="str">
+        <v>https://www.talkoverra.com/etc.clientlibs/awcm-projects-ous/components/content/feedback-popup/clientlibs.min.js</v>
+      </c>
+      <c r="B60">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="str">
+        <v>https://www.talkoverra.com/etc.clientlibs/awcm-projects-ous/clientlibs/abbvie-talkoverra-ous/clientlibs-components.min.js</v>
+      </c>
+      <c r="B61">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="str">
+        <v>https://fonts.gstatic.com/s/sairaextracondensed/v13/-nFvOHYr-vcC7h8MklGBkrvmUG9rbpkisrTrG2vh2wph.woff2</v>
+      </c>
+      <c r="B62">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="str">
+        <v>https://fonts.gstatic.com/s/ubuntu/v20/4iCv6KVjbNBYlgoCxCvjsGyN.woff2</v>
+      </c>
+      <c r="B63">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="str">
+        <v>https://www.talkoverra.com/content/dam/abbvie-talkoverra-ous/master/images/light.png/_jcr_content/renditions/cq5dam.web.1280.1280.png</v>
+      </c>
+      <c r="B64">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="str">
+        <v>https://www.talkoverra.com/content/dam/abbvie-talkoverra-ous/icon-text-mute.png/_jcr_content/renditions/cq5dam.web.1280.1280.png</v>
+      </c>
+      <c r="B65">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="str">
+        <v>https://www.talkoverra.com/etc.clientlibs/awcm-projects-ous/clientlibs/abbvie-talkoverra-ous/clientlibs-footer-publish.min.js</v>
+      </c>
+      <c r="B66">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="str">
+        <v>https://www.talkoverra.com/etc.clientlibs/clientlibs/granite/jquery/granite/csrf.min.js</v>
+      </c>
+      <c r="B67">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="str">
+        <v>https://www.talkoverra.com/etc.clientlibs/awcm-projects-ous/clientlibs/abbvie-talkoverra-ous/clientlibs-main.min.js</v>
+      </c>
+      <c r="B68">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="str">
+        <v>https://fonts.gstatic.com/s/ubuntu/v20/4iCs6KVjbNBYlgoKfw72.woff2</v>
+      </c>
+      <c r="B69">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="str">
+        <v>https://fonts.gstatic.com/s/sairaextracondensed/v13/-nFvOHYr-vcC7h8MklGBkrvmUG9rbpkisrTrT27h2wph.woff2</v>
+      </c>
+      <c r="B70">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="str">
+        <v>https://fonts.gstatic.com/s/sairaextracondensed/v13/-nFvOHYr-vcC7h8MklGBkrvmUG9rbpkisrTra2_h2wph.woff2</v>
+      </c>
+      <c r="B71">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="str">
+        <v>https://www.talkoverra.com/etc.clientlibs/awcm-projects-ous/components/content/button-link/clientlibs.min.js</v>
+      </c>
+      <c r="B72">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="str">
+        <v>https://consent.trustarc.com/v2/notice/yztgrf</v>
+      </c>
+      <c r="B73">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="str">
+        <v>https://www.talkoverra.com/content/abbvie-talkoverra-ous/it/it/_jcr_content/header/header/image-extension/item_1.coreimg.png/1600719179843-Campaign_Logo_ITA.png</v>
+      </c>
+      <c r="B74">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="str">
+        <v>https://www.talkoverra.com/content/dam/abbvie-talkoverra-ous/it/images/logo_ANMAR.png/_jcr_content/renditions/cq5dam.web.1280.1280.png</v>
+      </c>
+      <c r="B75">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="str">
+        <v>https://www.talkoverra.com/content/dam/abbvie-talkoverra-ous/it/images/discussion-guide-it-it-thumbnail.jpg/_jcr_content/renditions/cq5dam.web.1280.1280.jpeg</v>
+      </c>
+      <c r="B76">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="str">
+        <v>https://www.talkoverra.com/content/dam/abbvie-talkoverra-ous/it/images/apmarr_logo_2021.png/_jcr_content/renditions/cq5dam.web.1280.1280.png</v>
+      </c>
+      <c r="B77">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="str">
+        <v>https://www.talkoverra.com/etc.clientlibs/awcm-projects-ous/clientlibs/abbvie-talkoverra-ous/assets/resources/images/menu-active.png</v>
+      </c>
+      <c r="B78">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="str">
+        <v>https://www.talkoverra.com/content/dam/abbvie-talkoverra-ous/it/images/ABBVIE_card_desktop-202311.png/_jcr_content/renditions/cq5dam.web.1280.1280.png</v>
+      </c>
+      <c r="B79">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="str">
+        <v>https://www.talkoverra.com/content/abbvie-talkoverra-ous/it/it/jcr%3acontent/header/header/image-extension/item_1.coreimg.png/1600719259292.png</v>
+      </c>
+      <c r="B80">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="str">
+        <v>https://www.talkoverra.com/content/dam/abbvie-talkoverra-ous/it/images/ABBVIE_card_mobile_202311.png/_jcr_content/renditions/cq5dam.web.1280.1280.png</v>
+      </c>
+      <c r="B81">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="str">
+        <v>https://cag.abbvie.com:9999/jstag/managed/ruxitagent_A2Vfqru_10249220905100923.js</v>
+      </c>
+      <c r="B82">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="str">
+        <v>https://consent.trustarc.com/v2/asset/ic-error.svg</v>
+      </c>
+      <c r="B83">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="str">
+        <v>https://consent.trustarc.com/v2/asset/ic-close-white.svg</v>
+      </c>
+      <c r="B84">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="str">
+        <v>https://consent.trustarc.com/v2/asset/ic-close.svg</v>
+      </c>
+      <c r="B85">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="str">
+        <v>https://consent.trustarc.com/v2/asset/trustarc-logo-xs.svg</v>
+      </c>
+      <c r="B86">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="str">
+        <v>https://consent.trustarc.com/v2/asset/latin.woff2</v>
+      </c>
+      <c r="B87">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="str">
+        <v>https://www.talkoverra.com/libs/granite/csrf/token.json</v>
+      </c>
+      <c r="B88">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="str">
+        <v>https://consent.trustarc.com/v2/consentcategories/getnonemptyindexes?cmId=yztgrf&amp;referer=&amp;fullURL=https%3A%2F%2Fwww.talkoverra.com%2Fit%2Fit.html&amp;category=</v>
+      </c>
+      <c r="B89">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="str">
+        <v>https://www.talkoverra.com/content/abbvie-talkoverra-ous/it/it/jcr:content/body/column_control/par1-100col/container/content/column_control/par2-2575col/column_control/par1-100col/image_extension/item_1.coreimg.png/1600361553688-global-rheum-ra-talk-over-ra-campaign-3-transparent-1500px.png</v>
+      </c>
+      <c r="B90">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="str">
+        <v>https://consent.trustarc.com/v2/asset/08:17:29.341yztgrf_AbbVieID-logo.png</v>
+      </c>
+      <c r="B91">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="str">
+        <v>https://consent-reporting.trustarc.com/api/user-action/bannermsg?action=views&amp;domain=yztgrf&amp;behavior=implied&amp;country=bd&amp;language=en&amp;rand=0.08335928483371524&amp;session=d75b80e5-fb82-4521-957c-fb5c4e7da73c&amp;userType=NEW</v>
+      </c>
+      <c r="B92">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="str">
+        <v>https://consent-reporting.trustarc.com/api/user-action/log?action=impression&amp;domain=yztgrf&amp;behavior=implied&amp;country=bd&amp;language=en&amp;rand=0.8113471402638979&amp;session=d75b80e5-fb82-4521-957c-fb5c4e7da73c&amp;userType=NEW</v>
+      </c>
+      <c r="B93">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="str">
+        <v>https://www.talkoverra.com/bin/public/abbvie-commons/hreflangs?resourcePath=/content/abbvie-talkoverra-ous/it/it/jcr:content</v>
+      </c>
+      <c r="B94">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="str">
+        <v>https://www.talkoverra.com/content/abbvie-talkoverra-ous/it/it/jcr%3acontent/body/column_control/par1-100col/container/content/column_control/par2-2575col/column_control/par1-100col/image_extension/item_1.coreimg.png/1601405518701.png</v>
+      </c>
+      <c r="B95">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="str">
+        <v>https://www.talkoverra.com/content/abbvie-talkoverra-ous/it/it/jcr:content/body/container_copy/content/column_control_14221/par1-100col/image_extension/item_1.coreimg.png/1700489708605-ABBVIE_card_desktop-202311.png</v>
+      </c>
+      <c r="B96">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="str">
+        <v>https://www.talkoverra.com/content/abbvie-talkoverra-ous/it/it/jcr%3acontent/body/container_copy/content/column_control_14221/par1-100col/image_extension/item_1.coreimg.png/1700489960820.png</v>
+      </c>
+      <c r="B97">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="str">
+        <v>https://www.talkoverra.com/content/dam/abbvie-talkoverra-ous/it/images/background.jpg/_jcr_content/renditions/cq5dam.web.1280.1280.jpeg</v>
+      </c>
+      <c r="B98">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="str">
+        <v>https://cag.abbvie.com:9999/bf/16a183f6-c871-4082-850b-a1f7a2ecd0b1?type=js3&amp;sn=v_4_srv_-2D72_sn_2P6LIFTKLB82QPN10H1JHMBNT83HE69P&amp;svrid=-72&amp;flavor=cors&amp;vi=CWFLTOITFKCCQEUSVDHIVUHABHPTIIKC-0&amp;modifiedSince=1665670719626&amp;rf=https%3A%2F%2Fwww.talkoverra.com%2Fit%2Fit.html&amp;bp=3&amp;app=f58c43e8c8fb9498&amp;crc=530151110&amp;en=oao3vfhf&amp;end=1</v>
+      </c>
+      <c r="B99">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="str">
+        <v>https://cag.abbvie.com:9999/bf/16a183f6-c871-4082-850b-a1f7a2ecd0b1?type=js3&amp;sn=v_4_srv_8_sn_2P6LIFTKLB82QPN10H1JHMBNT83HE69P_app-3Af58c43e8c8fb9498_1_ol_0_perc_100000_mul_1&amp;svrid=8&amp;flavor=cors&amp;vi=CWFLTOITFKCCQEUSVDHIVUHABHPTIIKC-0&amp;modifiedSince=1718839398116&amp;rf=https%3A%2F%2Fwww.talkoverra.com%2Fit%2Fit.html&amp;bp=3&amp;app=f58c43e8c8fb9498&amp;crc=2450890055&amp;en=oao3vfhf&amp;end=1</v>
+      </c>
+      <c r="B100">
+        <v>200</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:B50"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:B100"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B47"/>
+  <dimension ref="A1:B95"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -2410,16 +3938,400 @@
         <v>200</v>
       </c>
     </row>
+    <row r="48">
+      <c r="A48" t="str">
+        <v>https://www.talkoverra.com/ca/fr.html</v>
+      </c>
+      <c r="B48">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="str">
+        <v>https://fonts.googleapis.com/css2?family=Saira+Extra+Condensed:wght@100;200;300;400;500;600;700;800;900&amp;family=Ubuntu:ital,wght@0,300;0,400;0,500;0,700;1,300;1,400;1,500;1,700&amp;family=Roboto:wght@400;500;700&amp;display=swap</v>
+      </c>
+      <c r="B49">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="str">
+        <v>https://www.talkoverra.com/etc.clientlibs/awcm-projects-ous/components/content/social-share/clientlibs.min.js</v>
+      </c>
+      <c r="B50">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="str">
+        <v>https://www.talkoverra.com/content/dam/abbvie-talkoverra-ous/canada/images/parlez-plus-fort-que-la-PR-logo.png/_jcr_content/renditions/cq5dam.web.1280.1280.png</v>
+      </c>
+      <c r="B51">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="str">
+        <v>https://www.talkoverra.com/etc.clientlibs/awcm-projects-ous/clientlibs/assets/resources/images/icons/close.png</v>
+      </c>
+      <c r="B52">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="str">
+        <v>https://www.talkoverra.com/etc.clientlibs/awcm-projects-ous/clientlibs/abbvie-talkoverra-ous/clientlibs-header-publish.min.css</v>
+      </c>
+      <c r="B53">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="str">
+        <v>https://www.talkoverra.com/etc.clientlibs/awcm-projects-ous/clientlibs/abbvie-talkoverra-ous/clientlibs-components.min.css</v>
+      </c>
+      <c r="B54">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="str">
+        <v>https://www.talkoverra.com/etc.clientlibs/awcm-projects-ous/clientlibs/abbvie-talkoverra-ous/clientlibs-main.min.css</v>
+      </c>
+      <c r="B55">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="str">
+        <v>https://www.talkoverra.com/etc.clientlibs/awcm-projects-ous/clientlibs/assets/resources/images/icons/open-menu.png</v>
+      </c>
+      <c r="B56">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="str">
+        <v>https://www.talkoverra.com/content/dam/abbvie-talkoverra-ous/canada/images/global-rheum-ra-talk-over-ra-campaign-3-fr-logo-1500px.jpg/_jcr_content/renditions/cq5dam.web.1280.1280.jpeg</v>
+      </c>
+      <c r="B57">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="str">
+        <v>https://www.talkoverra.com/etc.clientlibs/awcm-projects-ous/components/content/feedback-popup/clientlibs.min.js</v>
+      </c>
+      <c r="B58">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="str">
+        <v>https://www.talkoverra.com/etc.clientlibs/awcm-projects-ous/components/content/button-link/clientlibs.min.js</v>
+      </c>
+      <c r="B59">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="str">
+        <v>https://www.talkoverra.com/content/dam/abbvie-talkoverra-ous/canada/images/preappro-logo.png/_jcr_content/renditions/cq5dam.web.1280.1280.png</v>
+      </c>
+      <c r="B60">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="str">
+        <v>https://www.talkoverra.com/etc.clientlibs/awcm-projects-ous/clientlibs/abbvie-talkoverra-ous/clientlibs-components.min.js</v>
+      </c>
+      <c r="B61">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="str">
+        <v>https://www.talkoverra.com/content/dam/abbvie-talkoverra-ous/icon-text-mute.png/_jcr_content/renditions/cq5dam.web.1280.1280.png</v>
+      </c>
+      <c r="B62">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="str">
+        <v>https://www.talkoverra.com/content/dam/abbvie-talkoverra-ous/canada/images/discussion-guide-ca-fr-thumbnail.jpg/_jcr_content/renditions/cq5dam.web.1280.1280.jpeg</v>
+      </c>
+      <c r="B63">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="str">
+        <v>https://consent.trustarc.com/v2/notice/ugcobd</v>
+      </c>
+      <c r="B64">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="str">
+        <v>https://fonts.gstatic.com/s/sairaextracondensed/v13/-nFvOHYr-vcC7h8MklGBkrvmUG9rbpkisrTra2_h2wph.woff2</v>
+      </c>
+      <c r="B65">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="str">
+        <v>https://fonts.gstatic.com/s/ubuntu/v20/4iCs6KVjbNBYlgoKfw72.woff2</v>
+      </c>
+      <c r="B66">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="str">
+        <v>https://fonts.gstatic.com/s/sairaextracondensed/v13/-nFiOHYr-vcC7h8MklGBkrvmUG9rbpkisrTj6Ej0.woff2</v>
+      </c>
+      <c r="B67">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="str">
+        <v>https://fonts.gstatic.com/s/sairaextracondensed/v13/-nFvOHYr-vcC7h8MklGBkrvmUG9rbpkisrTrG2vh2wph.woff2</v>
+      </c>
+      <c r="B68">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="str">
+        <v>https://fonts.gstatic.com/s/sairaextracondensed/v13/-nFvOHYr-vcC7h8MklGBkrvmUG9rbpkisrTrT27h2wph.woff2</v>
+      </c>
+      <c r="B69">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="str">
+        <v>https://www.talkoverra.com/etc.clientlibs/awcm-projects-ous/clientlibs/abbvie-talkoverra-ous/clientlibs-footer-publish.min.js</v>
+      </c>
+      <c r="B70">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="str">
+        <v>https://www.talkoverra.com/etc.clientlibs/awcm-projects-ous/clientlibs/abbvie-talkoverra-ous/clientlibs-main.min.js</v>
+      </c>
+      <c r="B71">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="str">
+        <v>https://www.talkoverra.com/etc.clientlibs/clientlibs/granite/jquery/granite/csrf.min.js</v>
+      </c>
+      <c r="B72">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="str">
+        <v>https://www.talkoverra.com/etc.clientlibs/awcm-projects-ous/clientlibs/abbvie-talkoverra-ous/assets/resources/images/menu-active.png</v>
+      </c>
+      <c r="B73">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="str">
+        <v>https://cag.abbvie.com:9999/jstag/managed/ruxitagent_A2Vfqru_10249220905100923.js</v>
+      </c>
+      <c r="B74">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="str">
+        <v>https://consent.trustarc.com/v2/asset/ic-close.svg</v>
+      </c>
+      <c r="B75">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="str">
+        <v>https://consent.trustarc.com/v2/asset/trustarc-logo-xs.svg</v>
+      </c>
+      <c r="B76">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="str">
+        <v>https://consent.trustarc.com/v2/asset/latin.woff2</v>
+      </c>
+      <c r="B77">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="str">
+        <v>https://consent-reporting.trustarc.com/api/user-action/log?action=impression&amp;domain=ugcobd&amp;behavior=implied&amp;country=bd&amp;language=en&amp;rand=0.5726788110040877&amp;session=a63f6f73-fa59-475a-beba-d4fe5601b1b4&amp;userType=NEW</v>
+      </c>
+      <c r="B78">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="str">
+        <v>https://consent.trustarc.com/v2/consentcategories/getnonemptyindexes?cmId=ugcobd&amp;referer=&amp;fullURL=https%3A%2F%2Fwww.talkoverra.com%2Fca%2Ffr.html&amp;category=</v>
+      </c>
+      <c r="B79">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="str">
+        <v>https://www.talkoverra.com/content/abbvie-talkoverra-ous/ca/fr/jcr:content/body/column_control/par1-100col/container/content/column_control_copy/par2-1783col/image_extension_copy/item_1.coreimg.jpg/1602237129896-global-rheum-ra-talk-over-ra-campaign-3-fr-logo-1500px.jpg</v>
+      </c>
+      <c r="B80">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="str">
+        <v>https://www.talkoverra.com/content/abbvie-talkoverra-ous/ca/fr/jcr:content/header/header/image-extension/item_1.coreimg.png/1602236398192-parlez-plus-fort-que-la-PR-logo.png</v>
+      </c>
+      <c r="B81">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="str">
+        <v>https://consent-reporting.trustarc.com/api/user-action/bannermsg?action=views&amp;domain=ugcobd&amp;behavior=implied&amp;country=bd&amp;language=en&amp;rand=0.13179426572919817&amp;session=a63f6f73-fa59-475a-beba-d4fe5601b1b4&amp;userType=NEW</v>
+      </c>
+      <c r="B82">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="str">
+        <v>https://www.talkoverra.com/libs/granite/csrf/token.json</v>
+      </c>
+      <c r="B83">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="str">
+        <v>https://consent.trustarc.com/v2/asset/ic-error.svg</v>
+      </c>
+      <c r="B84">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="str">
+        <v>https://consent.trustarc.com/v2/asset/ic-close-white.svg</v>
+      </c>
+      <c r="B85">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="str">
+        <v>https://www.talkoverra.com/bin/public/abbvie-commons/hreflangs?resourcePath=/content/abbvie-talkoverra-ous/ca/fr/jcr:content</v>
+      </c>
+      <c r="B86">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="str">
+        <v>https://www.talkoverra.com/content/abbvie-talkoverra-ous/ca/fr/jcr%3acontent/body/column_control/par1-100col/container/content/column_control_copy/par2-1783col/image_extension_copy/item_1.coreimg.jpg/1602606918539.jpg</v>
+      </c>
+      <c r="B87">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="str">
+        <v>https://www.talkoverra.com/content/abbvie-talkoverra-ous/ca/fr/jcr%3acontent/header/header/image-extension/item_1.coreimg.png/1602236409154.png</v>
+      </c>
+      <c r="B88">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="str">
+        <v>https://www.talkoverra.com/content/abbvie-talkoverra-ous/ca/fr/jcr:content/body/column_control_460265258/par1-333333col/teaser_icon_text/image-extension/item_2.coreimg.png/1600361534293-icon-text-discover.png</v>
+      </c>
+      <c r="B89">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="str">
+        <v>https://www.talkoverra.com/content/abbvie-talkoverra-ous/ca/fr/jcr:content/body/column_control_460265258/par2-333333col/teaser_icon_text/image-extension/item_1.coreimg.png/1600361532420-icon-text-mute.png</v>
+      </c>
+      <c r="B90">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="str">
+        <v>https://www.talkoverra.com/content/abbvie-talkoverra-ous/ca/fr/jcr:content/body/column_control_460265258/par3-333333col/teaser_icon_text_cop/image-extension/item_2.coreimg.png/1600361550879-light.png</v>
+      </c>
+      <c r="B91">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="str">
+        <v>https://www.talkoverra.com/content/abbvie-talkoverra-ous/ca/fr/jcr%3acontent/body/column_control_460265258/par3-333333col/teaser_icon_text_cop/image-extension/item_2.coreimg.png/1623180276754.png</v>
+      </c>
+      <c r="B92">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="str">
+        <v>https://www.talkoverra.com/content/abbvie-talkoverra-ous/ca/fr/jcr:content/footer/footer/column-control/par1-100col/column_control/par2-6633col/column_control_copy/par2-2575col/image_extension/item_1.coreimg.png/1679386321774-preappro-logo.png</v>
+      </c>
+      <c r="B93">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="str">
+        <v>https://cag.abbvie.com:9999/bf/16a183f6-c871-4082-850b-a1f7a2ecd0b1?type=js3&amp;sn=v_4_srv_-2D99_sn_E7S071D7170095VAGEVUKA8MI8K4CHSJ&amp;svrid=-99&amp;flavor=cors&amp;vi=KTFFACRVPHMMFQRMCIDHCFJPSLKUCKQR-0&amp;modifiedSince=1665670719626&amp;rf=https%3A%2F%2Fwww.talkoverra.com%2Fca%2Ffr.html&amp;bp=3&amp;app=f58c43e8c8fb9498&amp;crc=4290188351&amp;en=oao3vfhf&amp;end=1</v>
+      </c>
+      <c r="B94">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="str">
+        <v>https://cag.abbvie.com:9999/bf/16a183f6-c871-4082-850b-a1f7a2ecd0b1?type=js3&amp;sn=v_4_srv_8_sn_E7S071D7170095VAGEVUKA8MI8K4CHSJ_app-3Af58c43e8c8fb9498_1_ol_0_perc_100000_mul_1&amp;svrid=8&amp;flavor=cors&amp;vi=KTFFACRVPHMMFQRMCIDHCFJPSLKUCKQR-0&amp;modifiedSince=1718839398116&amp;rf=https%3A%2F%2Fwww.talkoverra.com%2Fca%2Ffr.html&amp;bp=3&amp;app=f58c43e8c8fb9498&amp;crc=3439828823&amp;en=oao3vfhf&amp;end=1</v>
+      </c>
+      <c r="B95">
+        <v>200</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:B47"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:B95"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B55"/>
+  <dimension ref="A1:B109"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -2864,16 +4776,448 @@
         <v>200</v>
       </c>
     </row>
+    <row r="56">
+      <c r="A56" t="str">
+        <v>https://www.mluvmeora.cz/</v>
+      </c>
+      <c r="B56">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="str">
+        <v>https://fonts.googleapis.com/css2?family=Saira+Extra+Condensed:wght@100;200;300;400;500;600;700;800;900&amp;family=Ubuntu:ital,wght@0,300;0,400;0,500;0,700;1,300;1,400;1,500;1,700&amp;family=Roboto:wght@400;500;700&amp;display=swap</v>
+      </c>
+      <c r="B57">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="str">
+        <v>https://www.mluvmeora.cz/content/dam/abbvie-talkoverra-ous/sk/Images/abbvie-logo.png/_jcr_content/renditions/cq5dam.web.1280.1280.png</v>
+      </c>
+      <c r="B58">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="str">
+        <v>https://www.mluvmeora.cz/content/dam/abbvie-talkoverra-ous/icon-text-mute.png/_jcr_content/renditions/cq5dam.web.1280.1280.png</v>
+      </c>
+      <c r="B59">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="str">
+        <v>https://www.mluvmeora.cz/etc.clientlibs/awcm-projects-ous/clientlibs/assets/resources/images/icons/open-menu.png</v>
+      </c>
+      <c r="B60">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="str">
+        <v>https://www.mluvmeora.cz/etc.clientlibs/awcm-projects-ous/components/content/social-share/clientlibs.min.js</v>
+      </c>
+      <c r="B61">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="str">
+        <v>https://www.mluvmeora.cz/etc.clientlibs/awcm-projects-ous/clientlibs/abbvie-talkoverra-ous/clientlibs-components.min.css</v>
+      </c>
+      <c r="B62">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="str">
+        <v>https://www.mluvmeora.cz/content/dam/abbvie-talkoverra-ous/master/images/light.png/_jcr_content/renditions/cq5dam.web.1280.1280.png</v>
+      </c>
+      <c r="B63">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="str">
+        <v>https://www.mluvmeora.cz/etc.clientlibs/awcm-projects-ous/clientlibs/assets/resources/images/icons/close.png</v>
+      </c>
+      <c r="B64">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="str">
+        <v>https://www.mluvmeora.cz/content/dam/abbvie-talkoverra-ous/cz/images/1600361532287-tora_CZ.png/_jcr_content/renditions/cq5dam.web.1280.1280.png</v>
+      </c>
+      <c r="B65">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="str">
+        <v>https://www.mluvmeora.cz/etc.clientlibs/awcm-projects-ous/clientlibs/abbvie-talkoverra-ous/clientlibs-main.min.css</v>
+      </c>
+      <c r="B66">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="str">
+        <v>https://www.mluvmeora.cz/etc.clientlibs/awcm-projects-ous/components/content/button-link/clientlibs.min.js</v>
+      </c>
+      <c r="B67">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="str">
+        <v>https://www.mluvmeora.cz/content/dam/abbvie-talkoverra-ous/cz/images/1634303514227.png/_jcr_content/renditions/cq5dam.web.1280.1280.png</v>
+      </c>
+      <c r="B68">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="str">
+        <v>https://www.mluvmeora.cz/content/dam/abbvie-talkoverra-ous/cz/images/1602606918539_CZ.jpg/_jcr_content/renditions/cq5dam.web.1280.1280.jpeg</v>
+      </c>
+      <c r="B69">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="str">
+        <v>https://www.mluvmeora.cz/etc.clientlibs/awcm-projects-ous/clientlibs/abbvie-talkoverra-ous/clientlibs-header-publish.min.css</v>
+      </c>
+      <c r="B70">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="str">
+        <v>https://www.mluvmeora.cz/etc.clientlibs/clientlibs/granite/jquery/granite/csrf.min.js</v>
+      </c>
+      <c r="B71">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="str">
+        <v>https://www.mluvmeora.cz/etc.clientlibs/awcm-projects-ous/components/content/feedback-popup/clientlibs.min.js</v>
+      </c>
+      <c r="B72">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="str">
+        <v>https://www.mluvmeora.cz/etc.clientlibs/awcm-projects-ous/clientlibs/abbvie-talkoverra-ous/clientlibs-footer-publish.min.js</v>
+      </c>
+      <c r="B73">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="str">
+        <v>https://fonts.gstatic.com/s/sairaextracondensed/v13/-nFvOHYr-vcC7h8MklGBkrvmUG9rbpkisrTrT27h2wph.woff2</v>
+      </c>
+      <c r="B74">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="str">
+        <v>https://fonts.gstatic.com/s/sairaextracondensed/v13/-nFvOHYr-vcC7h8MklGBkrvmUG9rbpkisrTra2_h1Qphim8.woff2</v>
+      </c>
+      <c r="B75">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="str">
+        <v>https://www.mluvmeora.cz/content/dam/abbvie-talkoverra-ous/cz/images/pruvodce-rozhovorem-s-lekarem-2023-11.jpg/_jcr_content/renditions/cq5dam.web.1280.1280.jpeg</v>
+      </c>
+      <c r="B76">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="str">
+        <v>https://www.mluvmeora.cz/etc.clientlibs/awcm-projects-ous/clientlibs/abbvie-talkoverra-ous/clientlibs-components.min.js</v>
+      </c>
+      <c r="B77">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="str">
+        <v>https://fonts.gstatic.com/s/sairaextracondensed/v13/-nFvOHYr-vcC7h8MklGBkrvmUG9rbpkisrTrT27h1Qphim8.woff2</v>
+      </c>
+      <c r="B78">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="str">
+        <v>https://fonts.gstatic.com/s/sairaextracondensed/v13/-nFvOHYr-vcC7h8MklGBkrvmUG9rbpkisrTrG2vh2wph.woff2</v>
+      </c>
+      <c r="B79">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="str">
+        <v>https://fonts.gstatic.com/s/ubuntu/v20/4iCs6KVjbNBYlgoKfw72.woff2</v>
+      </c>
+      <c r="B80">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="str">
+        <v>https://fonts.gstatic.com/s/sairaextracondensed/v13/-nFvOHYr-vcC7h8MklGBkrvmUG9rbpkisrTra2_h2wph.woff2</v>
+      </c>
+      <c r="B81">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="str">
+        <v>https://fonts.gstatic.com/s/ubuntu/v20/4iCs6KVjbNBYlgoKcQ72j00.woff2</v>
+      </c>
+      <c r="B82">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="str">
+        <v>https://consent.trustarc.com/v2/notice/i2ph8p</v>
+      </c>
+      <c r="B83">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="str">
+        <v>https://www.mluvmeora.cz/etc.clientlibs/awcm-projects-ous/clientlibs/abbvie-talkoverra-ous/assets/resources/images/menu-active.png</v>
+      </c>
+      <c r="B84">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="str">
+        <v>https://www.mluvmeora.cz/etc.clientlibs/awcm-projects-ous/clientlibs/abbvie-talkoverra-ous/clientlibs-main.min.js</v>
+      </c>
+      <c r="B85">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="str">
+        <v>https://cag.abbvie.com:9999/jstag/managed/ruxitagent_A2Vfqru_10249220905100923.js</v>
+      </c>
+      <c r="B86">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="str">
+        <v>https://consent.trustarc.com/v2/asset/trustarc-logo-xs.svg</v>
+      </c>
+      <c r="B87">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="str">
+        <v>https://consent.trustarc.com/v2/asset/ic-close.svg</v>
+      </c>
+      <c r="B88">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="str">
+        <v>https://consent.trustarc.com/v2/asset/latin.woff2</v>
+      </c>
+      <c r="B89">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="str">
+        <v>https://consent.trustarc.com/v2/asset/13:26:51.898i2ph8p_AbbVieID-logo.png</v>
+      </c>
+      <c r="B90">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="str">
+        <v>https://consent-reporting.trustarc.com/api/user-action/log?action=impression&amp;domain=i2ph8p&amp;behavior=implied&amp;country=bd&amp;language=en&amp;rand=0.36204566222416057&amp;session=c22c052a-2f9a-429a-897f-b42f59bb656f&amp;userType=NEW</v>
+      </c>
+      <c r="B91">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="str">
+        <v>https://consent.trustarc.com/v2/consentcategories/getnonemptyindexes?cmId=i2ph8p&amp;referer=&amp;fullURL=https%3A%2F%2Fwww.mluvmeora.cz%2F&amp;category=</v>
+      </c>
+      <c r="B92">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="str">
+        <v>https://consent-reporting.trustarc.com/api/user-action/bannermsg?action=views&amp;domain=i2ph8p&amp;behavior=implied&amp;country=bd&amp;language=en&amp;rand=0.5799527370887623&amp;session=c22c052a-2f9a-429a-897f-b42f59bb656f&amp;userType=NEW</v>
+      </c>
+      <c r="B93">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="str">
+        <v>https://www.mluvmeora.cz/content/abbvie-talkoverra-ous/cz/cs/jcr:content/body/column_control/par1-100col/container/content/column_control_copy/par2-1783col/image_extension/item_1.coreimg.jpg/1630076638744-1602606918539_CZ.jpg</v>
+      </c>
+      <c r="B94">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="str">
+        <v>https://www.mluvmeora.cz/content/abbvie-talkoverra-ous/cz/cs/jcr:content/header/header/image-extension/item_1.coreimg.png/1630076638071-1600361532287-tora_CZ.png</v>
+      </c>
+      <c r="B95">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="str">
+        <v>https://www.mluvmeora.cz/bin/public/abbvie-commons/hreflangs?resourcePath=/content/abbvie-talkoverra-ous/cz/cs/jcr:content</v>
+      </c>
+      <c r="B96">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="str">
+        <v>https://www.mluvmeora.cz/libs/granite/csrf/token.json</v>
+      </c>
+      <c r="B97">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="str">
+        <v>https://consent.trustarc.com/v2/asset/ic-error.svg</v>
+      </c>
+      <c r="B98">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="str">
+        <v>https://consent.trustarc.com/v2/asset/ic-close-white.svg</v>
+      </c>
+      <c r="B99">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="str">
+        <v>https://www.mluvmeora.cz/content/abbvie-talkoverra-ous/cz/cs/jcr%3acontent/header/header/image-extension/item_1.coreimg.png/1630076742548.png</v>
+      </c>
+      <c r="B100">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="str">
+        <v>https://www.mluvmeora.cz/content/abbvie-talkoverra-ous/cz/cs/jcr:content/body/column_control_460265258/par3-333333col/teaser_icon_text/image-extension/item_1.coreimg.png/1600361550879-light.png</v>
+      </c>
+      <c r="B101">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="str">
+        <v>https://www.mluvmeora.cz/content/abbvie-talkoverra-ous/cz/cs/jcr:content/body/column_control_460265258/par2-333333col/teaser_icon_text/image-extension/item_1.coreimg.png/1600361532420-icon-text-mute.png</v>
+      </c>
+      <c r="B102">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="str">
+        <v>https://www.mluvmeora.cz/content/abbvie-talkoverra-ous/cz/cs/jcr:content/body/column_control_460265258/par1-333333col/teaser_icon_text/image-extension/item_2.coreimg.png/1600361534293-icon-text-discover.png</v>
+      </c>
+      <c r="B103">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="str">
+        <v>https://www.mluvmeora.cz/content/abbvie-talkoverra-ous/cz/cs/jcr%3acontent/body/column_control/par1-100col/container/content/column_control_copy/par2-1783col/image_extension/item_1.coreimg.jpg/1630916205145.jpg</v>
+      </c>
+      <c r="B104">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="str">
+        <v>https://www.mluvmeora.cz/content/abbvie-talkoverra-ous/cz/cs/jcr:content/footer/footer/column-control/par1-100col/container/content/column_control_copy_/par1-7525col/column_control_copy_/par1-255025col/image_extension_copy/item_1.coreimg.png/1632320824488-abbvie-logo.png</v>
+      </c>
+      <c r="B105">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="str">
+        <v>https://www.mluvmeora.cz/content/abbvie-talkoverra-ous/cz/cs/jcr:content/footer/footer/column-control/par1-100col/container/content/column_control_copy_/par1-7525col/column_control_copy_/par2-255025col/column_control/par2-1783col/column_control/par1-5050col/image_extension_copy/item_1.coreimg.png/1634304002106-1634303514227.png</v>
+      </c>
+      <c r="B106">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="str">
+        <v>https://www.mluvmeora.cz/content/abbvie-talkoverra-ous/cz/cs/jcr%3acontent/footer/footer/column-control/par1-100col/container/content/column_control_copy_/par1-7525col/column_control_copy_/par1-255025col/image_extension_copy/item_1.coreimg.png/1633857108161.png</v>
+      </c>
+      <c r="B107">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="str">
+        <v>https://www.mluvmeora.cz/content/abbvie-talkoverra-ous/cz/cs/jcr%3acontent/footer/footer/column-control/par1-100col/container/content/column_control_copy_/par1-7525col/column_control_copy_/par2-255025col/column_control/par2-1783col/column_control/par1-5050col/image_extension_copy/item_1.coreimg.png/1634304037431.png</v>
+      </c>
+      <c r="B108">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="str">
+        <v>https://cag.abbvie.com:9999/bf/16a183f6-c871-4082-850b-a1f7a2ecd0b1?type=js3&amp;sn=v_4_srv_-2D44_sn_75SJO5OUINDAMVIJ0R1HPLNB4DP0718N&amp;svrid=-44&amp;flavor=cors&amp;vi=SMANFPTMUVKCBIEBOFWCKIPNHLALPCHL-0&amp;modifiedSince=1665670719626&amp;rf=https%3A%2F%2Fwww.mluvmeora.cz%2F&amp;bp=3&amp;app=f58c43e8c8fb9498&amp;crc=38774481&amp;en=oao3vfhf&amp;end=1</v>
+      </c>
+      <c r="B109">
+        <v>200</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:B55"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:B109"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B52"/>
+  <dimension ref="A1:B103"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -3294,16 +5638,424 @@
         <v>200</v>
       </c>
     </row>
+    <row r="53">
+      <c r="A53" t="str">
+        <v>https://www.hovormeora.sk/</v>
+      </c>
+      <c r="B53">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="str">
+        <v>https://fonts.googleapis.com/css2?family=Saira+Extra+Condensed:wght@100;200;300;400;500;600;700;800;900&amp;family=Ubuntu:ital,wght@0,300;0,400;0,500;0,700;1,300;1,400;1,500;1,700&amp;family=Roboto:wght@400;500;700&amp;display=swap</v>
+      </c>
+      <c r="B54">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="str">
+        <v>https://consent.trustarc.com/v2/notice/mwshbe</v>
+      </c>
+      <c r="B55">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="str">
+        <v>https://www.hovormeora.sk/etc.clientlibs/awcm-projects-ous/components/content/social-share/clientlibs.min.js</v>
+      </c>
+      <c r="B56">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="str">
+        <v>https://www.hovormeora.sk/etc.clientlibs/clientlibs/granite/jquery/granite/csrf.min.js</v>
+      </c>
+      <c r="B57">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="str">
+        <v>https://www.hovormeora.sk/content/dam/abbvie-talkoverra-ous/master/images/light.png/_jcr_content/renditions/cq5dam.web.1280.1280.png</v>
+      </c>
+      <c r="B58">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="str">
+        <v>https://www.hovormeora.sk/etc.clientlibs/awcm-projects-ous/clientlibs/assets/resources/images/icons/open-menu.png</v>
+      </c>
+      <c r="B59">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="str">
+        <v>https://www.hovormeora.sk/content/dam/abbvie-talkoverra-ous/sk/Images/1600361532287-tora_SK.png/_jcr_content/renditions/cq5dam.web.1280.1280.png</v>
+      </c>
+      <c r="B60">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="str">
+        <v>https://www.hovormeora.sk/etc.clientlibs/awcm-projects-ous/clientlibs/abbvie-talkoverra-ous/clientlibs-components.min.css</v>
+      </c>
+      <c r="B61">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="str">
+        <v>https://www.hovormeora.sk/content/dam/abbvie-talkoverra-ous/sk/Images/abbvie-logo.png/_jcr_content/renditions/cq5dam.web.1280.1280.png</v>
+      </c>
+      <c r="B62">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="str">
+        <v>https://www.hovormeora.sk/etc.clientlibs/awcm-projects-ous/components/content/button-link/clientlibs.min.js</v>
+      </c>
+      <c r="B63">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="str">
+        <v>https://www.hovormeora.sk/etc.clientlibs/awcm-projects-ous/clientlibs/assets/resources/images/icons/close.png</v>
+      </c>
+      <c r="B64">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="str">
+        <v>https://www.hovormeora.sk/etc.clientlibs/awcm-projects-ous/components/content/feedback-popup/clientlibs.min.js</v>
+      </c>
+      <c r="B65">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="str">
+        <v>https://www.hovormeora.sk/content/dam/abbvie-talkoverra-ous/icon-text-mute.png/_jcr_content/renditions/cq5dam.web.1280.1280.png</v>
+      </c>
+      <c r="B66">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="str">
+        <v>https://www.hovormeora.sk/etc.clientlibs/awcm-projects-ous/clientlibs/abbvie-talkoverra-ous/clientlibs-footer-publish.min.js</v>
+      </c>
+      <c r="B67">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="str">
+        <v>https://www.hovormeora.sk/content/dam/abbvie-talkoverra-ous/sk/Images/Disccusion-Guide-SK-verzia-021.jpg/_jcr_content/renditions/cq5dam.web.1280.1280.jpeg</v>
+      </c>
+      <c r="B68">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="str">
+        <v>https://www.hovormeora.sk/etc.clientlibs/awcm-projects-ous/clientlibs/abbvie-talkoverra-ous/clientlibs-components.min.js</v>
+      </c>
+      <c r="B69">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="str">
+        <v>https://www.hovormeora.sk/content/dam/abbvie-talkoverra-ous/sk/Images/pani-barbora.png/_jcr_content/renditions/cq5dam.web.1280.1280.png</v>
+      </c>
+      <c r="B70">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="str">
+        <v>https://www.hovormeora.sk/etc.clientlibs/awcm-projects-ous/clientlibs/abbvie-talkoverra-ous/clientlibs-main.min.js</v>
+      </c>
+      <c r="B71">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="str">
+        <v>https://www.hovormeora.sk/etc.clientlibs/awcm-projects-ous/clientlibs/abbvie-talkoverra-ous/clientlibs-main.min.css</v>
+      </c>
+      <c r="B72">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="str">
+        <v>https://www.hovormeora.sk/etc.clientlibs/awcm-projects-ous/clientlibs/abbvie-talkoverra-ous/clientlibs-header-publish.min.css</v>
+      </c>
+      <c r="B73">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="str">
+        <v>https://www.hovormeora.sk/etc.clientlibs/awcm-projects-ous/clientlibs/abbvie-talkoverra-ous/assets/resources/images/menu-active.png</v>
+      </c>
+      <c r="B74">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="str">
+        <v>https://fonts.gstatic.com/s/ubuntu/v20/4iCs6KVjbNBYlgoKcQ72j00.woff2</v>
+      </c>
+      <c r="B75">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="str">
+        <v>https://fonts.gstatic.com/s/sairaextracondensed/v13/-nFvOHYr-vcC7h8MklGBkrvmUG9rbpkisrTrG2vh2wph.woff2</v>
+      </c>
+      <c r="B76">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="str">
+        <v>https://fonts.gstatic.com/s/ubuntu/v20/4iCs6KVjbNBYlgoKfw72.woff2</v>
+      </c>
+      <c r="B77">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="str">
+        <v>https://fonts.gstatic.com/s/sairaextracondensed/v13/-nFvOHYr-vcC7h8MklGBkrvmUG9rbpkisrTra2_h2wph.woff2</v>
+      </c>
+      <c r="B78">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="str">
+        <v>https://fonts.gstatic.com/s/sairaextracondensed/v13/-nFvOHYr-vcC7h8MklGBkrvmUG9rbpkisrTrT27h1Qphim8.woff2</v>
+      </c>
+      <c r="B79">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="str">
+        <v>https://fonts.gstatic.com/s/sairaextracondensed/v13/-nFvOHYr-vcC7h8MklGBkrvmUG9rbpkisrTrT27h2wph.woff2</v>
+      </c>
+      <c r="B80">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="str">
+        <v>https://fonts.gstatic.com/s/sairaextracondensed/v13/-nFvOHYr-vcC7h8MklGBkrvmUG9rbpkisrTra2_h1Qphim8.woff2</v>
+      </c>
+      <c r="B81">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="str">
+        <v>https://cag.abbvie.com:9999/jstag/managed/ruxitagent_A2Vfqru_10249220905100923.js</v>
+      </c>
+      <c r="B82">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="str">
+        <v>https://consent.trustarc.com/v2/asset/ic-error.svg</v>
+      </c>
+      <c r="B83">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="str">
+        <v>https://consent.trustarc.com/v2/asset/ic-close-white.svg</v>
+      </c>
+      <c r="B84">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="str">
+        <v>https://consent.trustarc.com/v2/asset/ic-close.svg</v>
+      </c>
+      <c r="B85">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="str">
+        <v>https://consent.trustarc.com/v2/asset/trustarc-logo-xs.svg</v>
+      </c>
+      <c r="B86">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="str">
+        <v>https://consent.trustarc.com/v2/asset/latin.woff2</v>
+      </c>
+      <c r="B87">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="str">
+        <v>https://www.hovormeora.sk/libs/granite/csrf/token.json</v>
+      </c>
+      <c r="B88">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="str">
+        <v>https://www.hovormeora.sk/content/abbvie-talkoverra-ous/sk/sk/jcr:content/header/header/image-extension/item_1.coreimg.png/1632927926041-1600361532287-tora_SK.png</v>
+      </c>
+      <c r="B89">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="str">
+        <v>https://www.hovormeora.sk/content/abbvie-talkoverra-ous/sk/sk/jcr:content/body/column_control/par1-100col/container/content/column_control_copy/par2-1783col/image_extension/item_1.coreimg.png/1632984256852-pani-barbora.png</v>
+      </c>
+      <c r="B90">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="str">
+        <v>https://consent-reporting.trustarc.com/api/user-action/bannermsg?action=views&amp;domain=mwshbe&amp;behavior=implied&amp;country=bd&amp;language=en&amp;rand=0.4497016174513606&amp;session=f325cc38-fa4b-4b10-ad64-f727cfa20dcb&amp;userType=NEW</v>
+      </c>
+      <c r="B91">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="str">
+        <v>https://consent.trustarc.com/v2/consentcategories/getnonemptyindexes?cmId=mwshbe&amp;referer=&amp;fullURL=https%3A%2F%2Fwww.hovormeora.sk%2F&amp;category=</v>
+      </c>
+      <c r="B92">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="str">
+        <v>https://www.hovormeora.sk/content/abbvie-talkoverra-ous/sk/sk/jcr:content/body/column_control_460265258/par3-333333col/teaser_icon_text/image-extension/item_1.coreimg.png/1600361550879-light.png</v>
+      </c>
+      <c r="B93">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="str">
+        <v>https://www.hovormeora.sk/content/abbvie-talkoverra-ous/sk/sk/jcr:content/body/column_control_460265258/par1-333333col/teaser_icon_text/image-extension/item_2.coreimg.png/1600361534293-icon-text-discover.png</v>
+      </c>
+      <c r="B94">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="str">
+        <v>https://www.hovormeora.sk/content/abbvie-talkoverra-ous/sk/sk/jcr:content/body/column_control_460265258/par2-333333col/teaser_icon_text/image-extension/item_1.coreimg.png/1600361532420-icon-text-mute.png</v>
+      </c>
+      <c r="B95">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="str">
+        <v>https://consent.trustarc.com/v2/asset/13:16:30.944mwshbe_AbbVieID-logo.png</v>
+      </c>
+      <c r="B96">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="str">
+        <v>https://consent-reporting.trustarc.com/api/user-action/log?action=impression&amp;domain=mwshbe&amp;behavior=implied&amp;country=bd&amp;language=en&amp;rand=0.7660717362784111&amp;session=f325cc38-fa4b-4b10-ad64-f727cfa20dcb&amp;userType=NEW</v>
+      </c>
+      <c r="B97">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="str">
+        <v>https://www.hovormeora.sk/content/abbvie-talkoverra-ous/sk/sk/jcr%3acontent/body/column_control/par1-100col/container/content/column_control_copy/par2-1783col/image_extension/item_1.coreimg.png/1633072376330.png</v>
+      </c>
+      <c r="B98">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="str">
+        <v>https://www.hovormeora.sk/bin/public/abbvie-commons/hreflangs?resourcePath=/content/abbvie-talkoverra-ous/sk/sk/jcr:content</v>
+      </c>
+      <c r="B99">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="str">
+        <v>https://www.hovormeora.sk/content/abbvie-talkoverra-ous/sk/sk/jcr:content/footer/footer/column-control/par1-100col/column_control/par1-6633col/column_control/par1-25252525col/image_extension/item_1.coreimg.png/1632320824488-abbvie-logo.png</v>
+      </c>
+      <c r="B100">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="str">
+        <v>https://www.hovormeora.sk/content/abbvie-talkoverra-ous/sk/sk/jcr%3acontent/footer/footer/column-control/par1-100col/column_control/par1-6633col/column_control/par1-25252525col/image_extension/item_1.coreimg.png/1632321051936.png</v>
+      </c>
+      <c r="B101">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="str">
+        <v>https://cag.abbvie.com:9999/bf/16a183f6-c871-4082-850b-a1f7a2ecd0b1?type=js3&amp;sn=v_4_srv_-2D22_sn_0G19O51INF1JJ27QE92NMV5O08GVHJCU&amp;svrid=-22&amp;flavor=cors&amp;vi=KUJPGITQOSBKJAKHPGPNBCCQLUGBCMHE-0&amp;modifiedSince=1665670719626&amp;rf=https%3A%2F%2Fwww.hovormeora.sk%2F&amp;bp=3&amp;app=f58c43e8c8fb9498&amp;crc=2138775271&amp;en=oao3vfhf&amp;end=1</v>
+      </c>
+      <c r="B102">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="str">
+        <v>https://cag.abbvie.com:9999/bf/16a183f6-c871-4082-850b-a1f7a2ecd0b1?type=js3&amp;sn=v_4_srv_2_sn_0G19O51INF1JJ27QE92NMV5O08GVHJCU_app-3Af58c43e8c8fb9498_1_ol_0_perc_100000_mul_1&amp;svrid=2&amp;flavor=cors&amp;vi=KUJPGITQOSBKJAKHPGPNBCCQLUGBCMHE-0&amp;modifiedSince=1718839398116&amp;rf=https%3A%2F%2Fwww.hovormeora.sk%2F&amp;bp=3&amp;app=f58c43e8c8fb9498&amp;crc=929949810&amp;en=oao3vfhf&amp;end=1</v>
+      </c>
+      <c r="B103">
+        <v>200</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:B52"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:B103"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B50"/>
+  <dimension ref="A1:B99"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -3708,16 +6460,408 @@
         <v>200</v>
       </c>
     </row>
+    <row r="51">
+      <c r="A51" t="str">
+        <v>https://romatizmaacikca.com/</v>
+      </c>
+      <c r="B51">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="str">
+        <v>https://www.romatizmaacikca.com/</v>
+      </c>
+      <c r="B52">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="str">
+        <v>https://fonts.googleapis.com/css2?family=Saira+Extra+Condensed:wght@100;200;300;400;500;600;700;800;900&amp;family=Ubuntu:ital,wght@0,300;0,400;0,500;0,700;1,300;1,400;1,500;1,700&amp;family=Roboto:wght@400;500;700&amp;display=swap</v>
+      </c>
+      <c r="B53">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="str">
+        <v>https://www.romatizmaacikca.com/etc.clientlibs/awcm-projects-ous/clientlibs/abbvie-talkoverra-ous/clientlibs-components.min.css</v>
+      </c>
+      <c r="B54">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="str">
+        <v>https://www.romatizmaacikca.com/etc.clientlibs/awcm-projects-ous/clientlibs/abbvie-talkoverra-ous/clientlibs-header-publish.min.css</v>
+      </c>
+      <c r="B55">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="str">
+        <v>https://www.romatizmaacikca.com/etc.clientlibs/awcm-projects-ous/clientlibs/abbvie-talkoverra-ous/clientlibs-footer-publish.min.js</v>
+      </c>
+      <c r="B56">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="str">
+        <v>https://www.romatizmaacikca.com/etc.clientlibs/awcm-projects-ous/clientlibs/abbvie-talkoverra-ous/clientlibs-main.min.css</v>
+      </c>
+      <c r="B57">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="str">
+        <v>https://www.romatizmaacikca.com/etc.clientlibs/awcm-projects-ous/clientlibs/assets/resources/images/icons/open-menu.png</v>
+      </c>
+      <c r="B58">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="str">
+        <v>https://fonts.gstatic.com/s/sairaextracondensed/v13/-nFvOHYr-vcC7h8MklGBkrvmUG9rbpkisrTrT27h2wph.woff2</v>
+      </c>
+      <c r="B59">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="str">
+        <v>https://fonts.gstatic.com/s/sairaextracondensed/v13/-nFvOHYr-vcC7h8MklGBkrvmUG9rbpkisrTrT27h1Qphim8.woff2</v>
+      </c>
+      <c r="B60">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="str">
+        <v>https://www.romatizmaacikca.com/etc.clientlibs/awcm-projects-ous/clientlibs/assets/resources/images/icons/close.png</v>
+      </c>
+      <c r="B61">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="str">
+        <v>https://www.romatizmaacikca.com/content/dam/abbvie-talkoverra-ous/icon-text-mute.png/_jcr_content/renditions/cq5dam.web.1280.1280.png</v>
+      </c>
+      <c r="B62">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="str">
+        <v>https://fonts.gstatic.com/s/ubuntu/v20/4iCs6KVjbNBYlgoKcQ72j00.woff2</v>
+      </c>
+      <c r="B63">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="str">
+        <v>https://fonts.gstatic.com/s/ubuntu/v20/4iCs6KVjbNBYlgoKfw72.woff2</v>
+      </c>
+      <c r="B64">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="str">
+        <v>https://www.romatizmaacikca.com/content/dam/abbvie-talkoverra-ous/tr-tr/ABBVIE_2021_2_romatizmaacikca_logo_2_W-01.png/_jcr_content/renditions/cq5dam.web.1280.1280.png</v>
+      </c>
+      <c r="B65">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="str">
+        <v>https://fonts.gstatic.com/s/sairaextracondensed/v13/-nFvOHYr-vcC7h8MklGBkrvmUG9rbpkisrTra2_h2wph.woff2</v>
+      </c>
+      <c r="B66">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="str">
+        <v>https://fonts.gstatic.com/s/sairaextracondensed/v13/-nFvOHYr-vcC7h8MklGBkrvmUG9rbpkisrTra2_h1Qphim8.woff2</v>
+      </c>
+      <c r="B67">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="str">
+        <v>https://fonts.gstatic.com/s/sairaextracondensed/v13/-nFvOHYr-vcC7h8MklGBkrvmUG9rbpkisrTrG2vh2wph.woff2</v>
+      </c>
+      <c r="B68">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="str">
+        <v>https://www.romatizmaacikca.com/etc.clientlibs/clientlibs/granite/jquery/granite/csrf.min.js</v>
+      </c>
+      <c r="B69">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="str">
+        <v>https://www.romatizmaacikca.com/content/dam/abbvie-talkoverra-ous/tr-tr/ABBVIE_2021_2_RA_1500_1125.png/_jcr_content/renditions/cq5dam.web.1280.1280.png</v>
+      </c>
+      <c r="B70">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="str">
+        <v>https://www.romatizmaacikca.com/etc.clientlibs/awcm-projects-ous/clientlibs/abbvie-talkoverra-ous/assets/resources/images/menu-active.png</v>
+      </c>
+      <c r="B71">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="str">
+        <v>https://www.romatizmaacikca.com/etc.clientlibs/awcm-projects-ous/clientlibs/abbvie-talkoverra-ous/clientlibs-main.min.js</v>
+      </c>
+      <c r="B72">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="str">
+        <v>https://www.romatizmaacikca.com/etc.clientlibs/awcm-projects-ous/clientlibs/abbvie-talkoverra-ous/clientlibs-components.min.js</v>
+      </c>
+      <c r="B73">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="str">
+        <v>https://www.romatizmaacikca.com/etc.clientlibs/awcm-projects-ous/components/content/social-share/clientlibs.min.js</v>
+      </c>
+      <c r="B74">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="str">
+        <v>https://www.romatizmaacikca.com/etc.clientlibs/awcm-projects-ous/components/content/feedback-popup/clientlibs.min.js</v>
+      </c>
+      <c r="B75">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="str">
+        <v>https://www.romatizmaacikca.com/etc.clientlibs/awcm-projects-ous/components/content/button-link/clientlibs.min.js</v>
+      </c>
+      <c r="B76">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="str">
+        <v>https://www.romatizmaacikca.com/content/dam/abbvie-talkoverra-ous/master/images/light.png/_jcr_content/renditions/cq5dam.web.1280.1280.png</v>
+      </c>
+      <c r="B77">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="str">
+        <v>https://www.romatizmaacikca.com/content/dam/abbvie-talkoverra-ous/tr-tr/Talk%20Over%20RA%20Patient%20Discussion%20Guide_Turkey_v3.png/_jcr_content/renditions/cq5dam.web.1280.1280.png</v>
+      </c>
+      <c r="B78">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="str">
+        <v>https://cag.abbvie.com:9999/jstag/managed/ruxitagent_A2Vfqru_10249220905100923.js</v>
+      </c>
+      <c r="B79">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="str">
+        <v>https://consent.trustarc.com/v2/notice/zyx5bx</v>
+      </c>
+      <c r="B80">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="str">
+        <v>https://consent.trustarc.com/v2/asset/ic-close.svg</v>
+      </c>
+      <c r="B81">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="str">
+        <v>https://consent.trustarc.com/v2/asset/trustarc-logo-xs.svg</v>
+      </c>
+      <c r="B82">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="str">
+        <v>https://consent.trustarc.com/v2/asset/15:45:33.593zyx5bx_AbbVieID-logo.png</v>
+      </c>
+      <c r="B83">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="str">
+        <v>https://consent.trustarc.com/v2/asset/latin.woff2</v>
+      </c>
+      <c r="B84">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="str">
+        <v>https://www.romatizmaacikca.com/libs/granite/csrf/token.json</v>
+      </c>
+      <c r="B85">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="str">
+        <v>https://consent.trustarc.com/v2/consentcategories/getnonemptyindexes?cmId=zyx5bx&amp;referer=&amp;fullURL=https%3A%2F%2Fwww.romatizmaacikca.com%2F&amp;category=</v>
+      </c>
+      <c r="B86">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="str">
+        <v>https://consent-reporting.trustarc.com/api/user-action/log?action=impression&amp;domain=zyx5bx&amp;behavior=implied&amp;country=bd&amp;language=en&amp;rand=0.1767327056311756&amp;session=5a245c3a-686f-4daf-8cad-4f300537b31b&amp;userType=NEW</v>
+      </c>
+      <c r="B87">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="str">
+        <v>https://consent-reporting.trustarc.com/api/user-action/bannermsg?action=views&amp;domain=zyx5bx&amp;behavior=implied&amp;country=bd&amp;language=en&amp;rand=0.49415238329132727&amp;session=5a245c3a-686f-4daf-8cad-4f300537b31b&amp;userType=NEW</v>
+      </c>
+      <c r="B88">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="str">
+        <v>https://consent.trustarc.com/v2/asset/ic-close-white.svg</v>
+      </c>
+      <c r="B89">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="str">
+        <v>https://consent.trustarc.com/v2/asset/ic-error.svg</v>
+      </c>
+      <c r="B90">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="str">
+        <v>https://www.romatizmaacikca.com/content/abbvie-talkoverra-ous/tr/tr/jcr:content/body/column_control/par1-100col/container/content/column_control_copy/par2-1783col/image_extension/item_1.coreimg.png/1632232646883-ABBVIE_2021_2_RA_1500_1125.png</v>
+      </c>
+      <c r="B91">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="str">
+        <v>https://www.romatizmaacikca.com/content/abbvie-talkoverra-ous/tr/tr/jcr:content/body/column_control_460265258/par1-333333col/teaser_icon_text_cop/image-extension/item_2.coreimg.png/1600361534293-icon-text-discover.png</v>
+      </c>
+      <c r="B92">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="str">
+        <v>https://www.romatizmaacikca.com/bin/public/abbvie-commons/hreflangs?resourcePath=/content/abbvie-talkoverra-ous/tr/tr/jcr:content</v>
+      </c>
+      <c r="B93">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="str">
+        <v>https://www.romatizmaacikca.com/content/abbvie-talkoverra-ous/tr/tr/jcr:content/body/column_control_460265258/par2-333333col/teaser_icon_text/image-extension/item_1.coreimg.png/1600361532420-icon-text-mute.png</v>
+      </c>
+      <c r="B94">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="str">
+        <v>https://www.romatizmaacikca.com/content/abbvie-talkoverra-ous/tr/tr/jcr:content/header/header/image-extension/item_1.coreimg.png/1660835946574-ABBVIE_2021_2_romatizmaacikca_logo_2_W-01.png</v>
+      </c>
+      <c r="B95">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="str">
+        <v>https://www.romatizmaacikca.com/content/abbvie-talkoverra-ous/tr/tr/jcr%3acontent/body/column_control/par1-100col/container/content/column_control_copy/par2-1783col/image_extension/item_1.coreimg.png/1632232728577.png</v>
+      </c>
+      <c r="B96">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="str">
+        <v>https://www.romatizmaacikca.com/content/abbvie-talkoverra-ous/tr/tr/jcr:content/body/column_control_460265258/par3-333333col/teaser_icon_text/image-extension/item_1.coreimg.png/1600361550879-light.png</v>
+      </c>
+      <c r="B97">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="str">
+        <v>https://cag.abbvie.com:9999/bf/16a183f6-c871-4082-850b-a1f7a2ecd0b1?type=js3&amp;sn=v_4_srv_-2D44_sn_0KFTBD570Q2R8VT1LVLV6DJBGJ45IO2J&amp;svrid=-44&amp;flavor=cors&amp;vi=ILWUEAWCFPGKRAPVVTQVTCGFEBLKKCCR-0&amp;modifiedSince=1665670719626&amp;rf=https%3A%2F%2Fwww.romatizmaacikca.com%2F&amp;bp=3&amp;app=f58c43e8c8fb9498&amp;crc=1130110013&amp;en=oao3vfhf&amp;end=1</v>
+      </c>
+      <c r="B98">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="str">
+        <v>https://cag.abbvie.com:9999/bf/16a183f6-c871-4082-850b-a1f7a2ecd0b1?type=js3&amp;sn=v_4_srv_6_sn_0KFTBD570Q2R8VT1LVLV6DJBGJ45IO2J_app-3Af58c43e8c8fb9498_1_ol_0_perc_100000_mul_1&amp;svrid=6&amp;flavor=cors&amp;vi=ILWUEAWCFPGKRAPVVTQVTCGFEBLKKCCR-0&amp;modifiedSince=1718839398116&amp;rf=https%3A%2F%2Fwww.romatizmaacikca.com%2F&amp;bp=3&amp;app=f58c43e8c8fb9498&amp;crc=3420387402&amp;en=oao3vfhf&amp;end=1</v>
+      </c>
+      <c r="B99">
+        <v>200</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:B50"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:B99"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B53"/>
+  <dimension ref="A1:B106"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -4146,9 +7290,433 @@
         <v>200</v>
       </c>
     </row>
+    <row r="54">
+      <c r="A54" t="str">
+        <v>https://www.ora-na-ginoun-eukola.gr/</v>
+      </c>
+      <c r="B54">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="str">
+        <v>https://fonts.googleapis.com/css2?family=Saira+Extra+Condensed:wght@100;200;300;400;500;600;700;800;900&amp;family=Ubuntu:ital,wght@0,300;0,400;0,500;0,700;1,300;1,400;1,500;1,700&amp;family=Roboto:wght@400;500;700&amp;display=swap</v>
+      </c>
+      <c r="B55">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="str">
+        <v>https://www.ora-na-ginoun-eukola.gr/etc.clientlibs/awcm-projects-ous/clientlibs/assets/resources/images/icons/open-menu.png</v>
+      </c>
+      <c r="B56">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="str">
+        <v>https://www.ora-na-ginoun-eukola.gr/content/dam/abbvie-talkoverra-ous/gr/RA_Campaign_Logo.png/_jcr_content/renditions/cq5dam.web.1280.1280.png</v>
+      </c>
+      <c r="B57">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="str">
+        <v>https://www.ora-na-ginoun-eukola.gr/etc.clientlibs/awcm-projects-ous/clientlibs/abbvie-talkoverra-ous/clientlibs-components.min.css</v>
+      </c>
+      <c r="B58">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="str">
+        <v>https://www.ora-na-ginoun-eukola.gr/etc.clientlibs/awcm-projects-ous/clientlibs/assets/resources/images/icons/close.png</v>
+      </c>
+      <c r="B59">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="str">
+        <v>https://www.ora-na-ginoun-eukola.gr/etc.clientlibs/awcm-projects-ous/clientlibs/abbvie-talkoverra-ous/clientlibs-header-publish.min.css</v>
+      </c>
+      <c r="B60">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="str">
+        <v>https://www.ora-na-ginoun-eukola.gr/etc.clientlibs/awcm-projects-ous/clientlibs/abbvie-talkoverra-ous/clientlibs-main.min.css</v>
+      </c>
+      <c r="B61">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="str">
+        <v>https://www.ora-na-ginoun-eukola.gr/etc.clientlibs/awcm-projects-ous/clientlibs/abbvie-talkoverra-ous/clientlibs-footer-publish.min.js</v>
+      </c>
+      <c r="B62">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="str">
+        <v>https://fonts.gstatic.com/s/ubuntu/v20/4iCs6KVjbNBYlgoKfA72j00.woff2</v>
+      </c>
+      <c r="B63">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="str">
+        <v>https://www.ora-na-ginoun-eukola.gr/etc.clientlibs/awcm-projects-ous/components/content/social-share/clientlibs.min.js</v>
+      </c>
+      <c r="B64">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="str">
+        <v>https://www.ora-na-ginoun-eukola.gr/etc.clientlibs/clientlibs/granite/jquery/granite/csrf.min.js</v>
+      </c>
+      <c r="B65">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="str">
+        <v>https://www.ora-na-ginoun-eukola.gr/etc.clientlibs/awcm-projects-ous/clientlibs/abbvie-talkoverra-ous/clientlibs-components.min.js</v>
+      </c>
+      <c r="B66">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="str">
+        <v>https://www.ora-na-ginoun-eukola.gr/etc.clientlibs/awcm-projects-ous/clientlibs/abbvie-talkoverra-ous/assets/resources/images/menu-active.png</v>
+      </c>
+      <c r="B67">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="str">
+        <v>https://fonts.gstatic.com/s/sairaextracondensed/v13/-nFvOHYr-vcC7h8MklGBkrvmUG9rbpkisrTra2_h2wph.woff2</v>
+      </c>
+      <c r="B68">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="str">
+        <v>https://fonts.gstatic.com/s/ubuntu/v20/4iCs6KVjbNBYlgoKfw72.woff2</v>
+      </c>
+      <c r="B69">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="str">
+        <v>https://fonts.gstatic.com/s/sairaextracondensed/v13/-nFvOHYr-vcC7h8MklGBkrvmUG9rbpkisrTrT27h2wph.woff2</v>
+      </c>
+      <c r="B70">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="str">
+        <v>https://fonts.gstatic.com/s/sairaextracondensed/v13/-nFvOHYr-vcC7h8MklGBkrvmUG9rbpkisrTrG2vh2wph.woff2</v>
+      </c>
+      <c r="B71">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="str">
+        <v>https://fonts.gstatic.com/s/ubuntu/v20/4iCv6KVjbNBYlgoCxCvjs2yNL4U.woff2</v>
+      </c>
+      <c r="B72">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="str">
+        <v>https://fonts.gstatic.com/s/ubuntu/v20/4iCv6KVjbNBYlgoCxCvjsGyN.woff2</v>
+      </c>
+      <c r="B73">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="str">
+        <v>https://consent.trustarc.com/v2/notice/kmhw8v</v>
+      </c>
+      <c r="B74">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="str">
+        <v>https://www.ora-na-ginoun-eukola.gr/content/dam/abbvie-talkoverra-ous/gr/koupa_text2.png/_jcr_content/renditions/cq5dam.web.1280.1280.png</v>
+      </c>
+      <c r="B75">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="str">
+        <v>https://www.ora-na-ginoun-eukola.gr/etc.clientlibs/awcm-projects-ous/components/content/button-link/clientlibs.min.js</v>
+      </c>
+      <c r="B76">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="str">
+        <v>https://www.ora-na-ginoun-eukola.gr/content/dam/abbvie-talkoverra-ous/gr/ELEANA_45years_Logo_HR.png/_jcr_content/renditions/cq5dam.web.1280.1280.png</v>
+      </c>
+      <c r="B77">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="str">
+        <v>https://www.ora-na-ginoun-eukola.gr/etc.clientlibs/awcm-projects-ous/clientlibs/abbvie-talkoverra-ous/clientlibs-main.min.js</v>
+      </c>
+      <c r="B78">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="str">
+        <v>https://www.ora-na-ginoun-eukola.gr/etc.clientlibs/awcm-projects-ous/components/content/feedback-popup/clientlibs.min.js</v>
+      </c>
+      <c r="B79">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="str">
+        <v>https://www.ora-na-ginoun-eukola.gr/content/dam/abbvie-talkoverra-ous/gr/abbvie-logo.png/_jcr_content/renditions/cq5dam.web.1280.1280.png</v>
+      </c>
+      <c r="B80">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="str">
+        <v>https://www.ora-na-ginoun-eukola.gr/content/dam/abbvie-talkoverra-ous/gr/LOGO-%CE%A1%CE%95%CE%A5%CE%9C%CE%91%CE%96%CE%97%CE%9D-%CE%94%CE%99%CE%91%CE%A6%CE%91%CE%9D%CE%9F.png/_jcr_content/renditions/cq5dam.web.1280.1280.png</v>
+      </c>
+      <c r="B81">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="str">
+        <v>https://www.ora-na-ginoun-eukola.gr/content/dam/abbvie-talkoverra-ous/gr/Pages%20from%202023-07-10-Rheuma_Patient_Brochure_M_site.pdf.png/_jcr_content/renditions/cq5dam.web.1280.1280.png</v>
+      </c>
+      <c r="B82">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="str">
+        <v>https://cag.abbvie.com:9999/jstag/managed/ruxitagent_A2Vfqru_10249220905100923.js</v>
+      </c>
+      <c r="B83">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="str">
+        <v>https://consent.trustarc.com/v2/asset/ic-error.svg</v>
+      </c>
+      <c r="B84">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="str">
+        <v>https://consent.trustarc.com/v2/asset/ic-close-white.svg</v>
+      </c>
+      <c r="B85">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="str">
+        <v>https://consent.trustarc.com/v2/asset/ic-close.svg</v>
+      </c>
+      <c r="B86">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="str">
+        <v>https://consent.trustarc.com/v2/asset/trustarc-logo-xs.svg</v>
+      </c>
+      <c r="B87">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="str">
+        <v>https://consent.trustarc.com/v2/asset/latin.woff2</v>
+      </c>
+      <c r="B88">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="str">
+        <v>https://www.ora-na-ginoun-eukola.gr/libs/granite/csrf/token.json</v>
+      </c>
+      <c r="B89">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="str">
+        <v>https://consent.trustarc.com/v2/asset/15:16:39.915r07dsr_AbbVieID_transp_logo.png</v>
+      </c>
+      <c r="B90">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="str">
+        <v>https://www.ora-na-ginoun-eukola.gr/content/abbvie-talkoverra-ous/gr/el/jcr:content/body/column_control/par1-100col/container/content/column_control_copy/par2-1783col/image_extension/item_1.coreimg.png/1695130113039-koupa_text2.png</v>
+      </c>
+      <c r="B91">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="str">
+        <v>https://www.ora-na-ginoun-eukola.gr/content/abbvie-talkoverra-ous/gr/el/jcr:content/header/header/image-extension/item_1.coreimg.png/1695123049719-RA_Campaign_Logo.png</v>
+      </c>
+      <c r="B92">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="str">
+        <v>https://www.ora-na-ginoun-eukola.gr/bin/public/abbvie-commons/hreflangs?resourcePath=/content/abbvie-talkoverra-ous/gr/el/jcr:content</v>
+      </c>
+      <c r="B93">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="str">
+        <v>https://consent-reporting.trustarc.com/api/user-action/log?action=impression&amp;domain=kmhw8v&amp;behavior=implied&amp;country=bd&amp;language=en&amp;rand=0.8201403981259581&amp;session=c59f8c04-a03c-435a-8612-24facd24acd1&amp;userType=NEW</v>
+      </c>
+      <c r="B94">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="str">
+        <v>https://consent-reporting.trustarc.com/api/user-action/bannermsg?action=views&amp;domain=kmhw8v&amp;behavior=implied&amp;country=bd&amp;language=en&amp;rand=0.7098848197120489&amp;session=c59f8c04-a03c-435a-8612-24facd24acd1&amp;userType=NEW</v>
+      </c>
+      <c r="B95">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="str">
+        <v>https://consent.trustarc.com/v2/consentcategories/getnonemptyindexes?cmId=kmhw8v&amp;referer=&amp;fullURL=https%3A%2F%2Fwww.ora-na-ginoun-eukola.gr%2F&amp;category=</v>
+      </c>
+      <c r="B96">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="str">
+        <v>https://www.ora-na-ginoun-eukola.gr/content/abbvie-talkoverra-ous/gr/el/jcr:content/body/column_control_460265258/par2-5050col/teaser_icon_text_cop/image-extension/item_2.coreimg.png/1695129604812-icon2-text-discover.png</v>
+      </c>
+      <c r="B97">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="str">
+        <v>https://www.ora-na-ginoun-eukola.gr/content/abbvie-talkoverra-ous/gr/el/jcr:content/body/column_control_460265258/par1-5050col/teaser_icon_text_cop/image-extension/item_2.coreimg.png/1695129840235-koupa2.png</v>
+      </c>
+      <c r="B98">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="str">
+        <v>https://www.ora-na-ginoun-eukola.gr/content/abbvie-talkoverra-ous/gr/el/jcr%3acontent/body/column_control/par1-100col/container/content/column_control_copy/par2-1783col/image_extension/item_1.coreimg.png/1695130132053.png</v>
+      </c>
+      <c r="B99">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="str">
+        <v>https://www.ora-na-ginoun-eukola.gr/content/abbvie-talkoverra-ous/gr/el/jcr%3acontent/body/column_control_460265258/par2-5050col/teaser_icon_text_cop/image-extension/item_2.coreimg.png/1695129661866.png</v>
+      </c>
+      <c r="B100">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="str">
+        <v>https://www.ora-na-ginoun-eukola.gr/content/abbvie-talkoverra-ous/gr/el/jcr%3acontent/body/column_control_460265258/par1-5050col/teaser_icon_text_cop/image-extension/item_2.coreimg.png/1695129864566.png</v>
+      </c>
+      <c r="B101">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="str">
+        <v>https://www.ora-na-ginoun-eukola.gr/content/abbvie-talkoverra-ous/gr/el/jcr%3acontent/header/header/image-extension/item_1.coreimg.png/1695123157920.png</v>
+      </c>
+      <c r="B102">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="str">
+        <v>https://www.ora-na-ginoun-eukola.gr/content/abbvie-talkoverra-ous/gr/el/jcr:content/footer/footer/column-control/par1-100col/column_control_copy/par1-100col/column_control_44447/par1-333333col/column_control_copy__921193855/par1-5050col/image_extension_copy/item_1.coreimg.png/1695123049719-RA_Campaign_Logo.png</v>
+      </c>
+      <c r="B103">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="str">
+        <v>https://www.ora-na-ginoun-eukola.gr/content/abbvie-talkoverra-ous/gr/el/jcr%3acontent/footer/footer/column-control/par1-100col/column_control_copy/par1-100col/column_control_44447/par1-333333col/column_control_copy__921193855/par1-5050col/image_extension_copy/item_1.coreimg.png/1695123544805.png</v>
+      </c>
+      <c r="B104">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="str">
+        <v>https://cag.abbvie.com:9999/bf/16a183f6-c871-4082-850b-a1f7a2ecd0b1?type=js3&amp;sn=v_4_srv_-2D29_sn_JN9JSPOQPMBA51IDF9A5Q80I2ERT6B96&amp;svrid=-29&amp;flavor=cors&amp;vi=AJCKSFFBLRNKEPMRQWHCPEAWMCWIFFRD-0&amp;modifiedSince=1665670719626&amp;rf=https%3A%2F%2Fwww.ora-na-ginoun-eukola.gr%2F&amp;bp=3&amp;app=f58c43e8c8fb9498&amp;crc=319258873&amp;en=oao3vfhf&amp;end=1</v>
+      </c>
+      <c r="B105">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="str">
+        <v>https://cag.abbvie.com:9999/bf/16a183f6-c871-4082-850b-a1f7a2ecd0b1?type=js3&amp;sn=v_4_srv_6_sn_JN9JSPOQPMBA51IDF9A5Q80I2ERT6B96_app-3Af58c43e8c8fb9498_1_ol_0_perc_100000_mul_1&amp;svrid=6&amp;flavor=cors&amp;vi=AJCKSFFBLRNKEPMRQWHCPEAWMCWIFFRD-0&amp;modifiedSince=1718839398116&amp;rf=https%3A%2F%2Fwww.ora-na-ginoun-eukola.gr%2F&amp;bp=3&amp;app=f58c43e8c8fb9498&amp;crc=435970618&amp;en=oao3vfhf&amp;end=1</v>
+      </c>
+      <c r="B106">
+        <v>200</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:B53"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:B106"/>
   </ignoredErrors>
 </worksheet>
 </file>